--- a/чек-листы YA/чек-лист YA.xlsx
+++ b/чек-листы YA/чек-лист YA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Win10\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Win10\Desktop\чек-листы YA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E39B483-570B-4442-80C4-52437619A338}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25714589-58F1-4E25-8484-1E8B232F17FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,13 +43,7 @@
     <t>1920x1080</t>
   </si>
   <si>
-    <t>Расположение, цвет и размер кнопок соответсттвует макету flow_button</t>
-  </si>
-  <si>
     <t>PASSED</t>
-  </si>
-  <si>
-    <t>Расположение, цвет и размер полей ввода соответсттвует макету flow_input</t>
   </si>
   <si>
     <t>Расположение, цвет и размер выпадающего списка станций метро соответсттвует макету flow_underground</t>
@@ -58,13 +52,7 @@
     <t>FAILED</t>
   </si>
   <si>
-    <t>Расположение, цвет и размер календаря соответсттвует макету flow_date</t>
-  </si>
-  <si>
     <t>Расположение, цвет и размер выпадающего списка срока аренды соответсттвует макету flow_rental period</t>
-  </si>
-  <si>
-    <t>Расположение, цвет и размер чекбоксов соответсттвует макету flow_color</t>
   </si>
   <si>
     <t>Название элементов их цвет и размер сответствует макету order_status_full</t>
@@ -189,6 +177,18 @@
   <si>
     <t>если пользователю доставили просроченный заказ, отсчёт времени до конца аренды начинается с момента получения заказа.</t>
   </si>
+  <si>
+    <t>Расположение, цвет и размер кнопок соответствует макету flow_button</t>
+  </si>
+  <si>
+    <t>Расположение, цвет и размер полей ввода соответствует макету flow_input</t>
+  </si>
+  <si>
+    <t>Расположение, цвет и размер календаря соответствует макету flow_date</t>
+  </si>
+  <si>
+    <t>Расположение, цвет и размер чекбоксов соответствует макету flow_color</t>
+  </si>
 </sst>
 </file>
 
@@ -256,7 +256,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -265,8 +265,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFE599"/>
+        <fgColor theme="2" tint="-0.14999847407452621"/>
         <bgColor rgb="FFFFE599"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -354,9 +360,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -396,15 +399,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -629,7 +635,7 @@
   <dimension ref="A1:Y1014"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -640,20 +646,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20"/>
-      <c r="E1" s="19" t="s">
+      <c r="D1" s="19"/>
+      <c r="E1" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="20"/>
+      <c r="F1" s="19"/>
       <c r="G1" s="21" t="s">
         <v>4</v>
       </c>
@@ -677,21 +683,21 @@
       <c r="Y1" s="1"/>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A2" s="16"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="2" t="s">
+      <c r="A2" s="15"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="18"/>
+      <c r="G2" s="17"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -712,25 +718,25 @@
       <c r="Y2" s="1"/>
     </row>
     <row r="3" spans="1:25" ht="27" customHeight="1">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" s="6"/>
+      <c r="B3" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="5"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -751,25 +757,25 @@
       <c r="Y3" s="1"/>
     </row>
     <row r="4" spans="1:25" ht="27" customHeight="1">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" s="6"/>
+      <c r="B4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="5"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -790,25 +796,25 @@
       <c r="Y4" s="1"/>
     </row>
     <row r="5" spans="1:25" ht="27" customHeight="1">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="8">
+      <c r="B5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="7">
         <v>1</v>
       </c>
       <c r="H5" s="1"/>
@@ -831,29 +837,29 @@
       <c r="Y5" s="1"/>
     </row>
     <row r="6" spans="1:25" ht="27" customHeight="1">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="8">
+      <c r="B6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G6" s="7">
         <v>2</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="9"/>
+      <c r="I6" s="8"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -872,25 +878,25 @@
       <c r="Y6" s="1"/>
     </row>
     <row r="7" spans="1:25" ht="27" customHeight="1">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="6"/>
+      <c r="B7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="5"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -911,25 +917,25 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="1:25" ht="27" customHeight="1">
-      <c r="A8" s="3">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="6"/>
+      <c r="B8" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="5"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -950,25 +956,25 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="1:25" ht="27" customHeight="1">
-      <c r="A9" s="3">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="7" t="s">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="8">
+      <c r="C9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G9" s="7">
         <v>3</v>
       </c>
       <c r="H9" s="1"/>
@@ -991,25 +997,25 @@
       <c r="Y9" s="1"/>
     </row>
     <row r="10" spans="1:25" ht="27.75" customHeight="1">
-      <c r="A10" s="3">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G10" s="6"/>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="5"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
       <c r="J10" s="1"/>
@@ -1030,25 +1036,25 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="1:25" ht="27.75" customHeight="1">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>9</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G11" s="6"/>
+      <c r="B11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G11" s="5"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
@@ -1069,25 +1075,25 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="1:25" ht="27" customHeight="1">
-      <c r="A12" s="3">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G12" s="6"/>
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="5"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
@@ -1108,25 +1114,25 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="1:25" ht="27" customHeight="1">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>11</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G13" s="6"/>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="5"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1147,25 +1153,25 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="1:25" ht="27" customHeight="1">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" s="8">
+      <c r="B14" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G14" s="7">
         <v>4</v>
       </c>
       <c r="H14" s="1"/>
@@ -1188,25 +1194,25 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="1:25" ht="27" customHeight="1">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>13</v>
       </c>
-      <c r="B15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G15" s="6"/>
+      <c r="B15" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="5"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1227,25 +1233,25 @@
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="1:25" ht="27" customHeight="1">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>14</v>
       </c>
-      <c r="B16" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G16" s="6"/>
+      <c r="B16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="5"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1266,25 +1272,25 @@
       <c r="Y16" s="1"/>
     </row>
     <row r="17" spans="1:25" ht="27" customHeight="1">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>15</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="8">
+      <c r="B17" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G17" s="7">
         <v>5</v>
       </c>
       <c r="H17" s="1"/>
@@ -1307,25 +1313,25 @@
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="1:25" ht="27" customHeight="1">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>16</v>
       </c>
-      <c r="B18" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G18" s="6"/>
+      <c r="B18" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="5"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1346,25 +1352,25 @@
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="1:25" ht="27.75" customHeight="1">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>17</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="6"/>
+      <c r="B19" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="5"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1385,25 +1391,25 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="1:25" ht="36.75" customHeight="1">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>18</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F20" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="6"/>
+      <c r="B20" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="5"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1424,25 +1430,25 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="1:25" ht="24.75" customHeight="1">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>19</v>
       </c>
-      <c r="B21" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G21" s="8">
+      <c r="B21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G21" s="7">
         <v>6</v>
       </c>
       <c r="H21" s="1"/>
@@ -1465,25 +1471,25 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="1:25" ht="27" customHeight="1">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>20</v>
       </c>
-      <c r="B22" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" s="8">
+      <c r="B22" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G22" s="7">
         <v>7</v>
       </c>
       <c r="H22" s="1"/>
@@ -1506,25 +1512,25 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="1:25" ht="25.5" customHeight="1">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F23" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G23" s="6"/>
+      <c r="B23" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="5"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -1545,25 +1551,25 @@
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="1:25" ht="16.5" customHeight="1">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>22</v>
       </c>
-      <c r="B24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G24" s="6"/>
+      <c r="B24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="5"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -1584,25 +1590,25 @@
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="1:25" ht="25.5" customHeight="1">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>23</v>
       </c>
-      <c r="B25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="6"/>
+      <c r="B25" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="5"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -1623,25 +1629,25 @@
       <c r="Y25" s="1"/>
     </row>
     <row r="26" spans="1:25" ht="14.25" customHeight="1">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G26" s="6"/>
+      <c r="B26" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="5"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -1662,25 +1668,25 @@
       <c r="Y26" s="1"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A27" s="3">
+      <c r="A27" s="2">
         <v>25</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D27" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F27" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G27" s="6"/>
+      <c r="B27" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="5"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1701,25 +1707,25 @@
       <c r="Y27" s="1"/>
     </row>
     <row r="28" spans="1:25" ht="26.25" customHeight="1">
-      <c r="A28" s="3">
+      <c r="A28" s="2">
         <v>26</v>
       </c>
-      <c r="B28" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F28" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G28" s="6"/>
+      <c r="B28" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G28" s="5"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1740,25 +1746,25 @@
       <c r="Y28" s="1"/>
     </row>
     <row r="29" spans="1:25" ht="24.75" customHeight="1">
-      <c r="A29" s="3">
+      <c r="A29" s="2">
         <v>27</v>
       </c>
-      <c r="B29" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="6"/>
+      <c r="B29" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G29" s="5"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1779,25 +1785,25 @@
       <c r="Y29" s="1"/>
     </row>
     <row r="30" spans="1:25" ht="24.75" customHeight="1">
-      <c r="A30" s="3">
+      <c r="A30" s="2">
         <v>28</v>
       </c>
-      <c r="B30" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G30" s="6"/>
+      <c r="B30" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G30" s="5"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1818,25 +1824,25 @@
       <c r="Y30" s="1"/>
     </row>
     <row r="31" spans="1:25" ht="38.25" customHeight="1">
-      <c r="A31" s="3">
+      <c r="A31" s="2">
         <v>29</v>
       </c>
-      <c r="B31" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G31" s="8">
+      <c r="B31" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G31" s="7">
         <v>8</v>
       </c>
       <c r="H31" s="1"/>
@@ -1859,25 +1865,25 @@
       <c r="Y31" s="1"/>
     </row>
     <row r="32" spans="1:25" ht="26.25" customHeight="1">
-      <c r="A32" s="3">
+      <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="B32" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F32" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G32" s="6"/>
+      <c r="B32" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="5"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1898,25 +1904,25 @@
       <c r="Y32" s="1"/>
     </row>
     <row r="33" spans="1:25" ht="27" customHeight="1">
-      <c r="A33" s="3">
+      <c r="A33" s="2">
         <v>31</v>
       </c>
-      <c r="B33" s="11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E33" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F33" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G33" s="6"/>
+      <c r="B33" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="5"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1937,25 +1943,25 @@
       <c r="Y33" s="1"/>
     </row>
     <row r="34" spans="1:25" ht="24" customHeight="1">
-      <c r="A34" s="3">
+      <c r="A34" s="2">
         <v>32</v>
       </c>
-      <c r="B34" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F34" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G34" s="6"/>
+      <c r="B34" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="5"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -1976,25 +1982,25 @@
       <c r="Y34" s="1"/>
     </row>
     <row r="35" spans="1:25" ht="38.25" customHeight="1">
-      <c r="A35" s="3">
+      <c r="A35" s="2">
         <v>33</v>
       </c>
-      <c r="B35" s="11" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G35" s="6"/>
+      <c r="B35" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="5"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -2015,25 +2021,25 @@
       <c r="Y35" s="1"/>
     </row>
     <row r="36" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A36" s="3">
+      <c r="A36" s="2">
         <v>34</v>
       </c>
-      <c r="B36" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F36" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G36" s="6"/>
+      <c r="B36" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="5"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -2054,25 +2060,25 @@
       <c r="Y36" s="1"/>
     </row>
     <row r="37" spans="1:25" ht="26.25" customHeight="1">
-      <c r="A37" s="3">
+      <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E37" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G37" s="6"/>
+      <c r="B37" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="5"/>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
       <c r="J37" s="1"/>
@@ -2093,25 +2099,25 @@
       <c r="Y37" s="1"/>
     </row>
     <row r="38" spans="1:25" ht="18.75" customHeight="1">
-      <c r="A38" s="3">
+      <c r="A38" s="2">
         <v>36</v>
       </c>
-      <c r="B38" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E38" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G38" s="6"/>
+      <c r="B38" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G38" s="5"/>
       <c r="H38" s="1"/>
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
@@ -2132,25 +2138,25 @@
       <c r="Y38" s="1"/>
     </row>
     <row r="39" spans="1:25" ht="26.25" customHeight="1">
-      <c r="A39" s="3">
+      <c r="A39" s="2">
         <v>37</v>
       </c>
-      <c r="B39" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E39" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F39" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G39" s="6"/>
+      <c r="B39" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G39" s="5"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
@@ -2171,25 +2177,25 @@
       <c r="Y39" s="1"/>
     </row>
     <row r="40" spans="1:25" ht="25.5" customHeight="1">
-      <c r="A40" s="3">
+      <c r="A40" s="2">
         <v>38</v>
       </c>
-      <c r="B40" s="11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E40" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F40" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G40" s="6"/>
+      <c r="B40" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G40" s="5"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
@@ -2210,25 +2216,25 @@
       <c r="Y40" s="1"/>
     </row>
     <row r="41" spans="1:25" ht="26.25" customHeight="1">
-      <c r="A41" s="3">
+      <c r="A41" s="2">
         <v>39</v>
       </c>
-      <c r="B41" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E41" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G41" s="6"/>
+      <c r="B41" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G41" s="5"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
@@ -2249,25 +2255,25 @@
       <c r="Y41" s="1"/>
     </row>
     <row r="42" spans="1:25" ht="50.25" customHeight="1">
-      <c r="A42" s="3">
+      <c r="A42" s="2">
         <v>40</v>
       </c>
-      <c r="B42" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E42" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G42" s="6"/>
+      <c r="B42" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G42" s="5"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
@@ -2288,25 +2294,25 @@
       <c r="Y42" s="1"/>
     </row>
     <row r="43" spans="1:25" ht="21" customHeight="1">
-      <c r="A43" s="3">
+      <c r="A43" s="2">
         <v>41</v>
       </c>
-      <c r="B43" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E43" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G43" s="6"/>
+      <c r="B43" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G43" s="5"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
@@ -2327,25 +2333,25 @@
       <c r="Y43" s="1"/>
     </row>
     <row r="44" spans="1:25" ht="24.75" customHeight="1">
-      <c r="A44" s="3">
+      <c r="A44" s="2">
         <v>42</v>
       </c>
-      <c r="B44" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F44" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G44" s="6"/>
+      <c r="B44" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G44" s="5"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
@@ -2366,25 +2372,25 @@
       <c r="Y44" s="1"/>
     </row>
     <row r="45" spans="1:25" ht="28.5" customHeight="1">
-      <c r="A45" s="3">
+      <c r="A45" s="2">
         <v>43</v>
       </c>
-      <c r="B45" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D45" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G45" s="8">
+      <c r="B45" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="G45" s="7">
         <v>9</v>
       </c>
       <c r="H45" s="1"/>
@@ -2407,25 +2413,25 @@
       <c r="Y45" s="1"/>
     </row>
     <row r="46" spans="1:25" ht="25.5" customHeight="1">
-      <c r="A46" s="3">
+      <c r="A46" s="2">
         <v>44</v>
       </c>
-      <c r="B46" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F46" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G46" s="6"/>
+      <c r="B46" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G46" s="5"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
@@ -2446,25 +2452,25 @@
       <c r="Y46" s="1"/>
     </row>
     <row r="47" spans="1:25" ht="48" customHeight="1">
-      <c r="A47" s="3">
+      <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="B47" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D47" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E47" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G47" s="6"/>
+      <c r="B47" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G47" s="5"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
@@ -2485,25 +2491,25 @@
       <c r="Y47" s="1"/>
     </row>
     <row r="48" spans="1:25" ht="18" customHeight="1">
-      <c r="A48" s="3">
+      <c r="A48" s="2">
         <v>46</v>
       </c>
-      <c r="B48" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E48" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G48" s="6"/>
+      <c r="B48" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G48" s="5"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
@@ -2524,25 +2530,25 @@
       <c r="Y48" s="1"/>
     </row>
     <row r="49" spans="1:25" ht="27" customHeight="1">
-      <c r="A49" s="3">
+      <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B49" s="12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E49" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="G49" s="6"/>
+      <c r="B49" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G49" s="5"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
@@ -2563,7 +2569,7 @@
       <c r="Y49" s="1"/>
     </row>
     <row r="50" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A50" s="13"/>
+      <c r="A50" s="12"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -2590,7 +2596,7 @@
       <c r="Y50" s="1"/>
     </row>
     <row r="51" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A51" s="13"/>
+      <c r="A51" s="12"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -2617,7 +2623,7 @@
       <c r="Y51" s="1"/>
     </row>
     <row r="52" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A52" s="13"/>
+      <c r="A52" s="12"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2644,7 +2650,7 @@
       <c r="Y52" s="1"/>
     </row>
     <row r="53" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A53" s="13"/>
+      <c r="A53" s="12"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2671,7 +2677,7 @@
       <c r="Y53" s="1"/>
     </row>
     <row r="54" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A54" s="13"/>
+      <c r="A54" s="12"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2698,7 +2704,7 @@
       <c r="Y54" s="1"/>
     </row>
     <row r="55" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A55" s="13"/>
+      <c r="A55" s="12"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -2725,7 +2731,7 @@
       <c r="Y55" s="1"/>
     </row>
     <row r="56" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A56" s="13"/>
+      <c r="A56" s="12"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2752,7 +2758,7 @@
       <c r="Y56" s="1"/>
     </row>
     <row r="57" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A57" s="13"/>
+      <c r="A57" s="12"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -2779,7 +2785,7 @@
       <c r="Y57" s="1"/>
     </row>
     <row r="58" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A58" s="13"/>
+      <c r="A58" s="12"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -2806,7 +2812,7 @@
       <c r="Y58" s="1"/>
     </row>
     <row r="59" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A59" s="13"/>
+      <c r="A59" s="12"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -2833,7 +2839,7 @@
       <c r="Y59" s="1"/>
     </row>
     <row r="60" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A60" s="13"/>
+      <c r="A60" s="12"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -2860,7 +2866,7 @@
       <c r="Y60" s="1"/>
     </row>
     <row r="61" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A61" s="13"/>
+      <c r="A61" s="12"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -2887,7 +2893,7 @@
       <c r="Y61" s="1"/>
     </row>
     <row r="62" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A62" s="13"/>
+      <c r="A62" s="12"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -2914,7 +2920,7 @@
       <c r="Y62" s="1"/>
     </row>
     <row r="63" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A63" s="13"/>
+      <c r="A63" s="12"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -2941,7 +2947,7 @@
       <c r="Y63" s="1"/>
     </row>
     <row r="64" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A64" s="13"/>
+      <c r="A64" s="12"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -2968,7 +2974,7 @@
       <c r="Y64" s="1"/>
     </row>
     <row r="65" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A65" s="13"/>
+      <c r="A65" s="12"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -2995,7 +3001,7 @@
       <c r="Y65" s="1"/>
     </row>
     <row r="66" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A66" s="13"/>
+      <c r="A66" s="12"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -3022,7 +3028,7 @@
       <c r="Y66" s="1"/>
     </row>
     <row r="67" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A67" s="13"/>
+      <c r="A67" s="12"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -3049,7 +3055,7 @@
       <c r="Y67" s="1"/>
     </row>
     <row r="68" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A68" s="13"/>
+      <c r="A68" s="12"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -3076,7 +3082,7 @@
       <c r="Y68" s="1"/>
     </row>
     <row r="69" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A69" s="13"/>
+      <c r="A69" s="12"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -3103,7 +3109,7 @@
       <c r="Y69" s="1"/>
     </row>
     <row r="70" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A70" s="13"/>
+      <c r="A70" s="12"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -3130,7 +3136,7 @@
       <c r="Y70" s="1"/>
     </row>
     <row r="71" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A71" s="13"/>
+      <c r="A71" s="12"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -3157,7 +3163,7 @@
       <c r="Y71" s="1"/>
     </row>
     <row r="72" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A72" s="13"/>
+      <c r="A72" s="12"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -3184,7 +3190,7 @@
       <c r="Y72" s="1"/>
     </row>
     <row r="73" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A73" s="13"/>
+      <c r="A73" s="12"/>
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -3211,7 +3217,7 @@
       <c r="Y73" s="1"/>
     </row>
     <row r="74" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A74" s="13"/>
+      <c r="A74" s="12"/>
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -3238,7 +3244,7 @@
       <c r="Y74" s="1"/>
     </row>
     <row r="75" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A75" s="13"/>
+      <c r="A75" s="12"/>
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -3265,7 +3271,7 @@
       <c r="Y75" s="1"/>
     </row>
     <row r="76" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A76" s="13"/>
+      <c r="A76" s="12"/>
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -3292,7 +3298,7 @@
       <c r="Y76" s="1"/>
     </row>
     <row r="77" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A77" s="13"/>
+      <c r="A77" s="12"/>
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -3319,7 +3325,7 @@
       <c r="Y77" s="1"/>
     </row>
     <row r="78" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A78" s="13"/>
+      <c r="A78" s="12"/>
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -3346,7 +3352,7 @@
       <c r="Y78" s="1"/>
     </row>
     <row r="79" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A79" s="13"/>
+      <c r="A79" s="12"/>
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -3373,7 +3379,7 @@
       <c r="Y79" s="1"/>
     </row>
     <row r="80" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A80" s="13"/>
+      <c r="A80" s="12"/>
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -3400,7 +3406,7 @@
       <c r="Y80" s="1"/>
     </row>
     <row r="81" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A81" s="13"/>
+      <c r="A81" s="12"/>
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -3427,7 +3433,7 @@
       <c r="Y81" s="1"/>
     </row>
     <row r="82" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A82" s="13"/>
+      <c r="A82" s="12"/>
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -3454,7 +3460,7 @@
       <c r="Y82" s="1"/>
     </row>
     <row r="83" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A83" s="13"/>
+      <c r="A83" s="12"/>
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -3481,7 +3487,7 @@
       <c r="Y83" s="1"/>
     </row>
     <row r="84" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A84" s="13"/>
+      <c r="A84" s="12"/>
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -3508,7 +3514,7 @@
       <c r="Y84" s="1"/>
     </row>
     <row r="85" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A85" s="13"/>
+      <c r="A85" s="12"/>
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -3535,7 +3541,7 @@
       <c r="Y85" s="1"/>
     </row>
     <row r="86" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A86" s="13"/>
+      <c r="A86" s="12"/>
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -3562,7 +3568,7 @@
       <c r="Y86" s="1"/>
     </row>
     <row r="87" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A87" s="13"/>
+      <c r="A87" s="12"/>
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -3589,7 +3595,7 @@
       <c r="Y87" s="1"/>
     </row>
     <row r="88" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A88" s="13"/>
+      <c r="A88" s="12"/>
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -3616,7 +3622,7 @@
       <c r="Y88" s="1"/>
     </row>
     <row r="89" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A89" s="13"/>
+      <c r="A89" s="12"/>
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -3643,7 +3649,7 @@
       <c r="Y89" s="1"/>
     </row>
     <row r="90" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A90" s="13"/>
+      <c r="A90" s="12"/>
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -3670,7 +3676,7 @@
       <c r="Y90" s="1"/>
     </row>
     <row r="91" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A91" s="13"/>
+      <c r="A91" s="12"/>
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -3697,7 +3703,7 @@
       <c r="Y91" s="1"/>
     </row>
     <row r="92" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A92" s="13"/>
+      <c r="A92" s="12"/>
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -3724,7 +3730,7 @@
       <c r="Y92" s="1"/>
     </row>
     <row r="93" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A93" s="13"/>
+      <c r="A93" s="12"/>
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -3751,7 +3757,7 @@
       <c r="Y93" s="1"/>
     </row>
     <row r="94" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A94" s="13"/>
+      <c r="A94" s="12"/>
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -3778,7 +3784,7 @@
       <c r="Y94" s="1"/>
     </row>
     <row r="95" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A95" s="13"/>
+      <c r="A95" s="12"/>
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3805,7 +3811,7 @@
       <c r="Y95" s="1"/>
     </row>
     <row r="96" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A96" s="13"/>
+      <c r="A96" s="12"/>
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3832,7 +3838,7 @@
       <c r="Y96" s="1"/>
     </row>
     <row r="97" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A97" s="13"/>
+      <c r="A97" s="12"/>
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -3859,7 +3865,7 @@
       <c r="Y97" s="1"/>
     </row>
     <row r="98" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A98" s="13"/>
+      <c r="A98" s="12"/>
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -3886,7 +3892,7 @@
       <c r="Y98" s="1"/>
     </row>
     <row r="99" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A99" s="13"/>
+      <c r="A99" s="12"/>
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -3913,7 +3919,7 @@
       <c r="Y99" s="1"/>
     </row>
     <row r="100" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A100" s="13"/>
+      <c r="A100" s="12"/>
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -3940,7 +3946,7 @@
       <c r="Y100" s="1"/>
     </row>
     <row r="101" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A101" s="13"/>
+      <c r="A101" s="12"/>
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -3967,7 +3973,7 @@
       <c r="Y101" s="1"/>
     </row>
     <row r="102" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A102" s="13"/>
+      <c r="A102" s="12"/>
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -3994,7 +4000,7 @@
       <c r="Y102" s="1"/>
     </row>
     <row r="103" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A103" s="13"/>
+      <c r="A103" s="12"/>
       <c r="B103" s="1"/>
       <c r="C103" s="1"/>
       <c r="D103" s="1"/>
@@ -4021,7 +4027,7 @@
       <c r="Y103" s="1"/>
     </row>
     <row r="104" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A104" s="13"/>
+      <c r="A104" s="12"/>
       <c r="B104" s="1"/>
       <c r="C104" s="1"/>
       <c r="D104" s="1"/>
@@ -4048,7 +4054,7 @@
       <c r="Y104" s="1"/>
     </row>
     <row r="105" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A105" s="13"/>
+      <c r="A105" s="12"/>
       <c r="B105" s="1"/>
       <c r="C105" s="1"/>
       <c r="D105" s="1"/>
@@ -4075,7 +4081,7 @@
       <c r="Y105" s="1"/>
     </row>
     <row r="106" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A106" s="13"/>
+      <c r="A106" s="12"/>
       <c r="B106" s="1"/>
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
@@ -4102,7 +4108,7 @@
       <c r="Y106" s="1"/>
     </row>
     <row r="107" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A107" s="13"/>
+      <c r="A107" s="12"/>
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -4129,7 +4135,7 @@
       <c r="Y107" s="1"/>
     </row>
     <row r="108" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A108" s="13"/>
+      <c r="A108" s="12"/>
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -4156,7 +4162,7 @@
       <c r="Y108" s="1"/>
     </row>
     <row r="109" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A109" s="13"/>
+      <c r="A109" s="12"/>
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -4183,7 +4189,7 @@
       <c r="Y109" s="1"/>
     </row>
     <row r="110" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A110" s="13"/>
+      <c r="A110" s="12"/>
       <c r="B110" s="1"/>
       <c r="C110" s="1"/>
       <c r="D110" s="1"/>
@@ -4210,7 +4216,7 @@
       <c r="Y110" s="1"/>
     </row>
     <row r="111" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A111" s="13"/>
+      <c r="A111" s="12"/>
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -4237,7 +4243,7 @@
       <c r="Y111" s="1"/>
     </row>
     <row r="112" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A112" s="13"/>
+      <c r="A112" s="12"/>
       <c r="B112" s="1"/>
       <c r="C112" s="1"/>
       <c r="D112" s="1"/>
@@ -4264,7 +4270,7 @@
       <c r="Y112" s="1"/>
     </row>
     <row r="113" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A113" s="13"/>
+      <c r="A113" s="12"/>
       <c r="B113" s="1"/>
       <c r="C113" s="1"/>
       <c r="D113" s="1"/>
@@ -4291,7 +4297,7 @@
       <c r="Y113" s="1"/>
     </row>
     <row r="114" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A114" s="13"/>
+      <c r="A114" s="12"/>
       <c r="B114" s="1"/>
       <c r="C114" s="1"/>
       <c r="D114" s="1"/>
@@ -4318,7 +4324,7 @@
       <c r="Y114" s="1"/>
     </row>
     <row r="115" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A115" s="13"/>
+      <c r="A115" s="12"/>
       <c r="B115" s="1"/>
       <c r="C115" s="1"/>
       <c r="D115" s="1"/>
@@ -4345,7 +4351,7 @@
       <c r="Y115" s="1"/>
     </row>
     <row r="116" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A116" s="13"/>
+      <c r="A116" s="12"/>
       <c r="B116" s="1"/>
       <c r="C116" s="1"/>
       <c r="D116" s="1"/>
@@ -4372,7 +4378,7 @@
       <c r="Y116" s="1"/>
     </row>
     <row r="117" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A117" s="13"/>
+      <c r="A117" s="12"/>
       <c r="B117" s="1"/>
       <c r="C117" s="1"/>
       <c r="D117" s="1"/>
@@ -4399,7 +4405,7 @@
       <c r="Y117" s="1"/>
     </row>
     <row r="118" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A118" s="13"/>
+      <c r="A118" s="12"/>
       <c r="B118" s="1"/>
       <c r="C118" s="1"/>
       <c r="D118" s="1"/>
@@ -4426,7 +4432,7 @@
       <c r="Y118" s="1"/>
     </row>
     <row r="119" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A119" s="13"/>
+      <c r="A119" s="12"/>
       <c r="B119" s="1"/>
       <c r="C119" s="1"/>
       <c r="D119" s="1"/>
@@ -4453,7 +4459,7 @@
       <c r="Y119" s="1"/>
     </row>
     <row r="120" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A120" s="13"/>
+      <c r="A120" s="12"/>
       <c r="B120" s="1"/>
       <c r="C120" s="1"/>
       <c r="D120" s="1"/>
@@ -4480,7 +4486,7 @@
       <c r="Y120" s="1"/>
     </row>
     <row r="121" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A121" s="13"/>
+      <c r="A121" s="12"/>
       <c r="B121" s="1"/>
       <c r="C121" s="1"/>
       <c r="D121" s="1"/>
@@ -4507,7 +4513,7 @@
       <c r="Y121" s="1"/>
     </row>
     <row r="122" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A122" s="13"/>
+      <c r="A122" s="12"/>
       <c r="B122" s="1"/>
       <c r="C122" s="1"/>
       <c r="D122" s="1"/>
@@ -4534,7 +4540,7 @@
       <c r="Y122" s="1"/>
     </row>
     <row r="123" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A123" s="13"/>
+      <c r="A123" s="12"/>
       <c r="B123" s="1"/>
       <c r="C123" s="1"/>
       <c r="D123" s="1"/>
@@ -4561,7 +4567,7 @@
       <c r="Y123" s="1"/>
     </row>
     <row r="124" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A124" s="13"/>
+      <c r="A124" s="12"/>
       <c r="B124" s="1"/>
       <c r="C124" s="1"/>
       <c r="D124" s="1"/>
@@ -4588,7 +4594,7 @@
       <c r="Y124" s="1"/>
     </row>
     <row r="125" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A125" s="13"/>
+      <c r="A125" s="12"/>
       <c r="B125" s="1"/>
       <c r="C125" s="1"/>
       <c r="D125" s="1"/>
@@ -4615,7 +4621,7 @@
       <c r="Y125" s="1"/>
     </row>
     <row r="126" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A126" s="13"/>
+      <c r="A126" s="12"/>
       <c r="B126" s="1"/>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -4642,7 +4648,7 @@
       <c r="Y126" s="1"/>
     </row>
     <row r="127" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A127" s="13"/>
+      <c r="A127" s="12"/>
       <c r="B127" s="1"/>
       <c r="C127" s="1"/>
       <c r="D127" s="1"/>
@@ -4669,7 +4675,7 @@
       <c r="Y127" s="1"/>
     </row>
     <row r="128" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A128" s="13"/>
+      <c r="A128" s="12"/>
       <c r="B128" s="1"/>
       <c r="C128" s="1"/>
       <c r="D128" s="1"/>
@@ -4696,7 +4702,7 @@
       <c r="Y128" s="1"/>
     </row>
     <row r="129" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A129" s="13"/>
+      <c r="A129" s="12"/>
       <c r="B129" s="1"/>
       <c r="C129" s="1"/>
       <c r="D129" s="1"/>
@@ -4723,7 +4729,7 @@
       <c r="Y129" s="1"/>
     </row>
     <row r="130" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A130" s="13"/>
+      <c r="A130" s="12"/>
       <c r="B130" s="1"/>
       <c r="C130" s="1"/>
       <c r="D130" s="1"/>
@@ -4750,7 +4756,7 @@
       <c r="Y130" s="1"/>
     </row>
     <row r="131" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A131" s="13"/>
+      <c r="A131" s="12"/>
       <c r="B131" s="1"/>
       <c r="C131" s="1"/>
       <c r="D131" s="1"/>
@@ -4777,7 +4783,7 @@
       <c r="Y131" s="1"/>
     </row>
     <row r="132" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A132" s="13"/>
+      <c r="A132" s="12"/>
       <c r="B132" s="1"/>
       <c r="C132" s="1"/>
       <c r="D132" s="1"/>
@@ -4804,7 +4810,7 @@
       <c r="Y132" s="1"/>
     </row>
     <row r="133" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A133" s="13"/>
+      <c r="A133" s="12"/>
       <c r="B133" s="1"/>
       <c r="C133" s="1"/>
       <c r="D133" s="1"/>
@@ -4831,7 +4837,7 @@
       <c r="Y133" s="1"/>
     </row>
     <row r="134" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A134" s="13"/>
+      <c r="A134" s="12"/>
       <c r="B134" s="1"/>
       <c r="C134" s="1"/>
       <c r="D134" s="1"/>
@@ -4858,7 +4864,7 @@
       <c r="Y134" s="1"/>
     </row>
     <row r="135" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A135" s="13"/>
+      <c r="A135" s="12"/>
       <c r="B135" s="1"/>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
@@ -4885,7 +4891,7 @@
       <c r="Y135" s="1"/>
     </row>
     <row r="136" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A136" s="13"/>
+      <c r="A136" s="12"/>
       <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
@@ -4912,7 +4918,7 @@
       <c r="Y136" s="1"/>
     </row>
     <row r="137" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A137" s="13"/>
+      <c r="A137" s="12"/>
       <c r="B137" s="1"/>
       <c r="C137" s="1"/>
       <c r="D137" s="1"/>
@@ -4939,7 +4945,7 @@
       <c r="Y137" s="1"/>
     </row>
     <row r="138" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A138" s="13"/>
+      <c r="A138" s="12"/>
       <c r="B138" s="1"/>
       <c r="C138" s="1"/>
       <c r="D138" s="1"/>
@@ -4966,7 +4972,7 @@
       <c r="Y138" s="1"/>
     </row>
     <row r="139" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A139" s="13"/>
+      <c r="A139" s="12"/>
       <c r="B139" s="1"/>
       <c r="C139" s="1"/>
       <c r="D139" s="1"/>
@@ -4993,7 +4999,7 @@
       <c r="Y139" s="1"/>
     </row>
     <row r="140" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A140" s="13"/>
+      <c r="A140" s="12"/>
       <c r="B140" s="1"/>
       <c r="C140" s="1"/>
       <c r="D140" s="1"/>
@@ -5020,7 +5026,7 @@
       <c r="Y140" s="1"/>
     </row>
     <row r="141" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A141" s="13"/>
+      <c r="A141" s="12"/>
       <c r="B141" s="1"/>
       <c r="C141" s="1"/>
       <c r="D141" s="1"/>
@@ -5047,7 +5053,7 @@
       <c r="Y141" s="1"/>
     </row>
     <row r="142" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A142" s="13"/>
+      <c r="A142" s="12"/>
       <c r="B142" s="1"/>
       <c r="C142" s="1"/>
       <c r="D142" s="1"/>
@@ -5074,7 +5080,7 @@
       <c r="Y142" s="1"/>
     </row>
     <row r="143" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A143" s="13"/>
+      <c r="A143" s="12"/>
       <c r="B143" s="1"/>
       <c r="C143" s="1"/>
       <c r="D143" s="1"/>
@@ -5101,7 +5107,7 @@
       <c r="Y143" s="1"/>
     </row>
     <row r="144" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A144" s="13"/>
+      <c r="A144" s="12"/>
       <c r="B144" s="1"/>
       <c r="C144" s="1"/>
       <c r="D144" s="1"/>
@@ -5128,7 +5134,7 @@
       <c r="Y144" s="1"/>
     </row>
     <row r="145" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A145" s="13"/>
+      <c r="A145" s="12"/>
       <c r="B145" s="1"/>
       <c r="C145" s="1"/>
       <c r="D145" s="1"/>
@@ -5155,7 +5161,7 @@
       <c r="Y145" s="1"/>
     </row>
     <row r="146" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A146" s="13"/>
+      <c r="A146" s="12"/>
       <c r="B146" s="1"/>
       <c r="C146" s="1"/>
       <c r="D146" s="1"/>
@@ -5182,7 +5188,7 @@
       <c r="Y146" s="1"/>
     </row>
     <row r="147" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A147" s="13"/>
+      <c r="A147" s="12"/>
       <c r="B147" s="1"/>
       <c r="C147" s="1"/>
       <c r="D147" s="1"/>
@@ -5209,7 +5215,7 @@
       <c r="Y147" s="1"/>
     </row>
     <row r="148" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A148" s="13"/>
+      <c r="A148" s="12"/>
       <c r="B148" s="1"/>
       <c r="C148" s="1"/>
       <c r="D148" s="1"/>
@@ -5236,7 +5242,7 @@
       <c r="Y148" s="1"/>
     </row>
     <row r="149" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A149" s="13"/>
+      <c r="A149" s="12"/>
       <c r="B149" s="1"/>
       <c r="C149" s="1"/>
       <c r="D149" s="1"/>
@@ -5263,7 +5269,7 @@
       <c r="Y149" s="1"/>
     </row>
     <row r="150" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A150" s="13"/>
+      <c r="A150" s="12"/>
       <c r="B150" s="1"/>
       <c r="C150" s="1"/>
       <c r="D150" s="1"/>
@@ -5290,7 +5296,7 @@
       <c r="Y150" s="1"/>
     </row>
     <row r="151" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A151" s="13"/>
+      <c r="A151" s="12"/>
       <c r="B151" s="1"/>
       <c r="C151" s="1"/>
       <c r="D151" s="1"/>
@@ -5317,7 +5323,7 @@
       <c r="Y151" s="1"/>
     </row>
     <row r="152" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A152" s="13"/>
+      <c r="A152" s="12"/>
       <c r="B152" s="1"/>
       <c r="C152" s="1"/>
       <c r="D152" s="1"/>
@@ -5344,7 +5350,7 @@
       <c r="Y152" s="1"/>
     </row>
     <row r="153" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A153" s="13"/>
+      <c r="A153" s="12"/>
       <c r="B153" s="1"/>
       <c r="C153" s="1"/>
       <c r="D153" s="1"/>
@@ -5371,7 +5377,7 @@
       <c r="Y153" s="1"/>
     </row>
     <row r="154" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A154" s="13"/>
+      <c r="A154" s="12"/>
       <c r="B154" s="1"/>
       <c r="C154" s="1"/>
       <c r="D154" s="1"/>
@@ -5398,7 +5404,7 @@
       <c r="Y154" s="1"/>
     </row>
     <row r="155" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A155" s="13"/>
+      <c r="A155" s="12"/>
       <c r="B155" s="1"/>
       <c r="C155" s="1"/>
       <c r="D155" s="1"/>
@@ -5425,7 +5431,7 @@
       <c r="Y155" s="1"/>
     </row>
     <row r="156" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A156" s="13"/>
+      <c r="A156" s="12"/>
       <c r="B156" s="1"/>
       <c r="C156" s="1"/>
       <c r="D156" s="1"/>
@@ -5452,7 +5458,7 @@
       <c r="Y156" s="1"/>
     </row>
     <row r="157" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A157" s="13"/>
+      <c r="A157" s="12"/>
       <c r="B157" s="1"/>
       <c r="C157" s="1"/>
       <c r="D157" s="1"/>
@@ -5479,7 +5485,7 @@
       <c r="Y157" s="1"/>
     </row>
     <row r="158" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A158" s="13"/>
+      <c r="A158" s="12"/>
       <c r="B158" s="1"/>
       <c r="C158" s="1"/>
       <c r="D158" s="1"/>
@@ -5506,7 +5512,7 @@
       <c r="Y158" s="1"/>
     </row>
     <row r="159" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A159" s="13"/>
+      <c r="A159" s="12"/>
       <c r="B159" s="1"/>
       <c r="C159" s="1"/>
       <c r="D159" s="1"/>
@@ -5533,7 +5539,7 @@
       <c r="Y159" s="1"/>
     </row>
     <row r="160" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A160" s="13"/>
+      <c r="A160" s="12"/>
       <c r="B160" s="1"/>
       <c r="C160" s="1"/>
       <c r="D160" s="1"/>
@@ -5560,7 +5566,7 @@
       <c r="Y160" s="1"/>
     </row>
     <row r="161" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A161" s="13"/>
+      <c r="A161" s="12"/>
       <c r="B161" s="1"/>
       <c r="C161" s="1"/>
       <c r="D161" s="1"/>
@@ -5587,7 +5593,7 @@
       <c r="Y161" s="1"/>
     </row>
     <row r="162" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A162" s="13"/>
+      <c r="A162" s="12"/>
       <c r="B162" s="1"/>
       <c r="C162" s="1"/>
       <c r="D162" s="1"/>
@@ -5614,7 +5620,7 @@
       <c r="Y162" s="1"/>
     </row>
     <row r="163" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A163" s="13"/>
+      <c r="A163" s="12"/>
       <c r="B163" s="1"/>
       <c r="C163" s="1"/>
       <c r="D163" s="1"/>
@@ -5641,7 +5647,7 @@
       <c r="Y163" s="1"/>
     </row>
     <row r="164" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A164" s="13"/>
+      <c r="A164" s="12"/>
       <c r="B164" s="1"/>
       <c r="C164" s="1"/>
       <c r="D164" s="1"/>
@@ -5668,7 +5674,7 @@
       <c r="Y164" s="1"/>
     </row>
     <row r="165" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A165" s="13"/>
+      <c r="A165" s="12"/>
       <c r="B165" s="1"/>
       <c r="C165" s="1"/>
       <c r="D165" s="1"/>
@@ -5695,7 +5701,7 @@
       <c r="Y165" s="1"/>
     </row>
     <row r="166" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A166" s="13"/>
+      <c r="A166" s="12"/>
       <c r="B166" s="1"/>
       <c r="C166" s="1"/>
       <c r="D166" s="1"/>
@@ -5722,7 +5728,7 @@
       <c r="Y166" s="1"/>
     </row>
     <row r="167" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A167" s="13"/>
+      <c r="A167" s="12"/>
       <c r="B167" s="1"/>
       <c r="C167" s="1"/>
       <c r="D167" s="1"/>
@@ -5749,7 +5755,7 @@
       <c r="Y167" s="1"/>
     </row>
     <row r="168" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A168" s="13"/>
+      <c r="A168" s="12"/>
       <c r="B168" s="1"/>
       <c r="C168" s="1"/>
       <c r="D168" s="1"/>
@@ -5776,7 +5782,7 @@
       <c r="Y168" s="1"/>
     </row>
     <row r="169" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A169" s="13"/>
+      <c r="A169" s="12"/>
       <c r="B169" s="1"/>
       <c r="C169" s="1"/>
       <c r="D169" s="1"/>
@@ -5803,7 +5809,7 @@
       <c r="Y169" s="1"/>
     </row>
     <row r="170" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A170" s="13"/>
+      <c r="A170" s="12"/>
       <c r="B170" s="1"/>
       <c r="C170" s="1"/>
       <c r="D170" s="1"/>
@@ -5830,7 +5836,7 @@
       <c r="Y170" s="1"/>
     </row>
     <row r="171" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A171" s="13"/>
+      <c r="A171" s="12"/>
       <c r="B171" s="1"/>
       <c r="C171" s="1"/>
       <c r="D171" s="1"/>
@@ -5857,7 +5863,7 @@
       <c r="Y171" s="1"/>
     </row>
     <row r="172" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A172" s="13"/>
+      <c r="A172" s="12"/>
       <c r="B172" s="1"/>
       <c r="C172" s="1"/>
       <c r="D172" s="1"/>
@@ -5884,7 +5890,7 @@
       <c r="Y172" s="1"/>
     </row>
     <row r="173" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A173" s="13"/>
+      <c r="A173" s="12"/>
       <c r="B173" s="1"/>
       <c r="C173" s="1"/>
       <c r="D173" s="1"/>
@@ -5911,7 +5917,7 @@
       <c r="Y173" s="1"/>
     </row>
     <row r="174" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A174" s="13"/>
+      <c r="A174" s="12"/>
       <c r="B174" s="1"/>
       <c r="C174" s="1"/>
       <c r="D174" s="1"/>
@@ -5938,7 +5944,7 @@
       <c r="Y174" s="1"/>
     </row>
     <row r="175" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A175" s="13"/>
+      <c r="A175" s="12"/>
       <c r="B175" s="1"/>
       <c r="C175" s="1"/>
       <c r="D175" s="1"/>
@@ -5965,7 +5971,7 @@
       <c r="Y175" s="1"/>
     </row>
     <row r="176" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A176" s="13"/>
+      <c r="A176" s="12"/>
       <c r="B176" s="1"/>
       <c r="C176" s="1"/>
       <c r="D176" s="1"/>
@@ -5992,7 +5998,7 @@
       <c r="Y176" s="1"/>
     </row>
     <row r="177" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A177" s="13"/>
+      <c r="A177" s="12"/>
       <c r="B177" s="1"/>
       <c r="C177" s="1"/>
       <c r="D177" s="1"/>
@@ -6019,7 +6025,7 @@
       <c r="Y177" s="1"/>
     </row>
     <row r="178" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A178" s="13"/>
+      <c r="A178" s="12"/>
       <c r="B178" s="1"/>
       <c r="C178" s="1"/>
       <c r="D178" s="1"/>
@@ -6046,7 +6052,7 @@
       <c r="Y178" s="1"/>
     </row>
     <row r="179" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A179" s="13"/>
+      <c r="A179" s="12"/>
       <c r="B179" s="1"/>
       <c r="C179" s="1"/>
       <c r="D179" s="1"/>
@@ -6073,7 +6079,7 @@
       <c r="Y179" s="1"/>
     </row>
     <row r="180" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A180" s="13"/>
+      <c r="A180" s="12"/>
       <c r="B180" s="1"/>
       <c r="C180" s="1"/>
       <c r="D180" s="1"/>
@@ -6100,7 +6106,7 @@
       <c r="Y180" s="1"/>
     </row>
     <row r="181" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A181" s="13"/>
+      <c r="A181" s="12"/>
       <c r="B181" s="1"/>
       <c r="C181" s="1"/>
       <c r="D181" s="1"/>
@@ -6127,7 +6133,7 @@
       <c r="Y181" s="1"/>
     </row>
     <row r="182" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A182" s="13"/>
+      <c r="A182" s="12"/>
       <c r="B182" s="1"/>
       <c r="C182" s="1"/>
       <c r="D182" s="1"/>
@@ -6154,7 +6160,7 @@
       <c r="Y182" s="1"/>
     </row>
     <row r="183" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A183" s="13"/>
+      <c r="A183" s="12"/>
       <c r="B183" s="1"/>
       <c r="C183" s="1"/>
       <c r="D183" s="1"/>
@@ -6181,7 +6187,7 @@
       <c r="Y183" s="1"/>
     </row>
     <row r="184" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A184" s="13"/>
+      <c r="A184" s="12"/>
       <c r="B184" s="1"/>
       <c r="C184" s="1"/>
       <c r="D184" s="1"/>
@@ -6208,7 +6214,7 @@
       <c r="Y184" s="1"/>
     </row>
     <row r="185" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A185" s="13"/>
+      <c r="A185" s="12"/>
       <c r="B185" s="1"/>
       <c r="C185" s="1"/>
       <c r="D185" s="1"/>
@@ -6235,7 +6241,7 @@
       <c r="Y185" s="1"/>
     </row>
     <row r="186" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A186" s="13"/>
+      <c r="A186" s="12"/>
       <c r="B186" s="1"/>
       <c r="C186" s="1"/>
       <c r="D186" s="1"/>
@@ -6262,7 +6268,7 @@
       <c r="Y186" s="1"/>
     </row>
     <row r="187" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A187" s="13"/>
+      <c r="A187" s="12"/>
       <c r="B187" s="1"/>
       <c r="C187" s="1"/>
       <c r="D187" s="1"/>
@@ -6289,7 +6295,7 @@
       <c r="Y187" s="1"/>
     </row>
     <row r="188" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A188" s="13"/>
+      <c r="A188" s="12"/>
       <c r="B188" s="1"/>
       <c r="C188" s="1"/>
       <c r="D188" s="1"/>
@@ -6316,7 +6322,7 @@
       <c r="Y188" s="1"/>
     </row>
     <row r="189" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A189" s="13"/>
+      <c r="A189" s="12"/>
       <c r="B189" s="1"/>
       <c r="C189" s="1"/>
       <c r="D189" s="1"/>
@@ -6343,7 +6349,7 @@
       <c r="Y189" s="1"/>
     </row>
     <row r="190" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A190" s="13"/>
+      <c r="A190" s="12"/>
       <c r="B190" s="1"/>
       <c r="C190" s="1"/>
       <c r="D190" s="1"/>
@@ -6370,7 +6376,7 @@
       <c r="Y190" s="1"/>
     </row>
     <row r="191" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A191" s="13"/>
+      <c r="A191" s="12"/>
       <c r="B191" s="1"/>
       <c r="C191" s="1"/>
       <c r="D191" s="1"/>
@@ -6397,7 +6403,7 @@
       <c r="Y191" s="1"/>
     </row>
     <row r="192" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A192" s="13"/>
+      <c r="A192" s="12"/>
       <c r="B192" s="1"/>
       <c r="C192" s="1"/>
       <c r="D192" s="1"/>
@@ -6424,7 +6430,7 @@
       <c r="Y192" s="1"/>
     </row>
     <row r="193" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A193" s="13"/>
+      <c r="A193" s="12"/>
       <c r="B193" s="1"/>
       <c r="C193" s="1"/>
       <c r="D193" s="1"/>
@@ -6451,7 +6457,7 @@
       <c r="Y193" s="1"/>
     </row>
     <row r="194" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A194" s="13"/>
+      <c r="A194" s="12"/>
       <c r="B194" s="1"/>
       <c r="C194" s="1"/>
       <c r="D194" s="1"/>
@@ -6478,7 +6484,7 @@
       <c r="Y194" s="1"/>
     </row>
     <row r="195" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A195" s="13"/>
+      <c r="A195" s="12"/>
       <c r="B195" s="1"/>
       <c r="C195" s="1"/>
       <c r="D195" s="1"/>
@@ -6505,7 +6511,7 @@
       <c r="Y195" s="1"/>
     </row>
     <row r="196" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A196" s="13"/>
+      <c r="A196" s="12"/>
       <c r="B196" s="1"/>
       <c r="C196" s="1"/>
       <c r="D196" s="1"/>
@@ -6532,7 +6538,7 @@
       <c r="Y196" s="1"/>
     </row>
     <row r="197" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A197" s="13"/>
+      <c r="A197" s="12"/>
       <c r="B197" s="1"/>
       <c r="C197" s="1"/>
       <c r="D197" s="1"/>
@@ -6559,7 +6565,7 @@
       <c r="Y197" s="1"/>
     </row>
     <row r="198" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A198" s="13"/>
+      <c r="A198" s="12"/>
       <c r="B198" s="1"/>
       <c r="C198" s="1"/>
       <c r="D198" s="1"/>
@@ -6586,7 +6592,7 @@
       <c r="Y198" s="1"/>
     </row>
     <row r="199" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A199" s="13"/>
+      <c r="A199" s="12"/>
       <c r="B199" s="1"/>
       <c r="C199" s="1"/>
       <c r="D199" s="1"/>
@@ -6613,7 +6619,7 @@
       <c r="Y199" s="1"/>
     </row>
     <row r="200" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A200" s="13"/>
+      <c r="A200" s="12"/>
       <c r="B200" s="1"/>
       <c r="C200" s="1"/>
       <c r="D200" s="1"/>
@@ -6640,7 +6646,7 @@
       <c r="Y200" s="1"/>
     </row>
     <row r="201" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A201" s="13"/>
+      <c r="A201" s="12"/>
       <c r="B201" s="1"/>
       <c r="C201" s="1"/>
       <c r="D201" s="1"/>
@@ -6667,7 +6673,7 @@
       <c r="Y201" s="1"/>
     </row>
     <row r="202" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A202" s="13"/>
+      <c r="A202" s="12"/>
       <c r="B202" s="1"/>
       <c r="C202" s="1"/>
       <c r="D202" s="1"/>
@@ -6694,7 +6700,7 @@
       <c r="Y202" s="1"/>
     </row>
     <row r="203" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A203" s="13"/>
+      <c r="A203" s="12"/>
       <c r="B203" s="1"/>
       <c r="C203" s="1"/>
       <c r="D203" s="1"/>
@@ -6721,7 +6727,7 @@
       <c r="Y203" s="1"/>
     </row>
     <row r="204" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A204" s="13"/>
+      <c r="A204" s="12"/>
       <c r="B204" s="1"/>
       <c r="C204" s="1"/>
       <c r="D204" s="1"/>
@@ -6748,7 +6754,7 @@
       <c r="Y204" s="1"/>
     </row>
     <row r="205" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A205" s="13"/>
+      <c r="A205" s="12"/>
       <c r="B205" s="1"/>
       <c r="C205" s="1"/>
       <c r="D205" s="1"/>
@@ -6775,7 +6781,7 @@
       <c r="Y205" s="1"/>
     </row>
     <row r="206" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A206" s="13"/>
+      <c r="A206" s="12"/>
       <c r="B206" s="1"/>
       <c r="C206" s="1"/>
       <c r="D206" s="1"/>
@@ -6802,7 +6808,7 @@
       <c r="Y206" s="1"/>
     </row>
     <row r="207" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A207" s="13"/>
+      <c r="A207" s="12"/>
       <c r="B207" s="1"/>
       <c r="C207" s="1"/>
       <c r="D207" s="1"/>
@@ -6829,7 +6835,7 @@
       <c r="Y207" s="1"/>
     </row>
     <row r="208" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A208" s="13"/>
+      <c r="A208" s="12"/>
       <c r="B208" s="1"/>
       <c r="C208" s="1"/>
       <c r="D208" s="1"/>
@@ -6856,7 +6862,7 @@
       <c r="Y208" s="1"/>
     </row>
     <row r="209" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A209" s="13"/>
+      <c r="A209" s="12"/>
       <c r="B209" s="1"/>
       <c r="C209" s="1"/>
       <c r="D209" s="1"/>
@@ -6883,7 +6889,7 @@
       <c r="Y209" s="1"/>
     </row>
     <row r="210" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A210" s="13"/>
+      <c r="A210" s="12"/>
       <c r="B210" s="1"/>
       <c r="C210" s="1"/>
       <c r="D210" s="1"/>
@@ -6910,7 +6916,7 @@
       <c r="Y210" s="1"/>
     </row>
     <row r="211" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A211" s="13"/>
+      <c r="A211" s="12"/>
       <c r="B211" s="1"/>
       <c r="C211" s="1"/>
       <c r="D211" s="1"/>
@@ -6937,7 +6943,7 @@
       <c r="Y211" s="1"/>
     </row>
     <row r="212" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A212" s="13"/>
+      <c r="A212" s="12"/>
       <c r="B212" s="1"/>
       <c r="C212" s="1"/>
       <c r="D212" s="1"/>
@@ -6964,7 +6970,7 @@
       <c r="Y212" s="1"/>
     </row>
     <row r="213" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A213" s="13"/>
+      <c r="A213" s="12"/>
       <c r="B213" s="1"/>
       <c r="C213" s="1"/>
       <c r="D213" s="1"/>
@@ -6991,7 +6997,7 @@
       <c r="Y213" s="1"/>
     </row>
     <row r="214" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A214" s="13"/>
+      <c r="A214" s="12"/>
       <c r="B214" s="1"/>
       <c r="C214" s="1"/>
       <c r="D214" s="1"/>
@@ -7018,7 +7024,7 @@
       <c r="Y214" s="1"/>
     </row>
     <row r="215" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A215" s="13"/>
+      <c r="A215" s="12"/>
       <c r="B215" s="1"/>
       <c r="C215" s="1"/>
       <c r="D215" s="1"/>
@@ -7045,7 +7051,7 @@
       <c r="Y215" s="1"/>
     </row>
     <row r="216" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A216" s="13"/>
+      <c r="A216" s="12"/>
       <c r="B216" s="1"/>
       <c r="C216" s="1"/>
       <c r="D216" s="1"/>
@@ -7072,7 +7078,7 @@
       <c r="Y216" s="1"/>
     </row>
     <row r="217" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A217" s="13"/>
+      <c r="A217" s="12"/>
       <c r="B217" s="1"/>
       <c r="C217" s="1"/>
       <c r="D217" s="1"/>
@@ -7099,7 +7105,7 @@
       <c r="Y217" s="1"/>
     </row>
     <row r="218" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A218" s="13"/>
+      <c r="A218" s="12"/>
       <c r="B218" s="1"/>
       <c r="C218" s="1"/>
       <c r="D218" s="1"/>
@@ -7126,7 +7132,7 @@
       <c r="Y218" s="1"/>
     </row>
     <row r="219" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A219" s="13"/>
+      <c r="A219" s="12"/>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
@@ -7153,7 +7159,7 @@
       <c r="Y219" s="1"/>
     </row>
     <row r="220" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A220" s="13"/>
+      <c r="A220" s="12"/>
       <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
@@ -7180,7 +7186,7 @@
       <c r="Y220" s="1"/>
     </row>
     <row r="221" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A221" s="13"/>
+      <c r="A221" s="12"/>
       <c r="B221" s="1"/>
       <c r="C221" s="1"/>
       <c r="D221" s="1"/>
@@ -7207,7 +7213,7 @@
       <c r="Y221" s="1"/>
     </row>
     <row r="222" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A222" s="13"/>
+      <c r="A222" s="12"/>
       <c r="B222" s="1"/>
       <c r="C222" s="1"/>
       <c r="D222" s="1"/>
@@ -7234,7 +7240,7 @@
       <c r="Y222" s="1"/>
     </row>
     <row r="223" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A223" s="13"/>
+      <c r="A223" s="12"/>
       <c r="B223" s="1"/>
       <c r="C223" s="1"/>
       <c r="D223" s="1"/>
@@ -7261,7 +7267,7 @@
       <c r="Y223" s="1"/>
     </row>
     <row r="224" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A224" s="13"/>
+      <c r="A224" s="12"/>
       <c r="B224" s="1"/>
       <c r="C224" s="1"/>
       <c r="D224" s="1"/>
@@ -7288,7 +7294,7 @@
       <c r="Y224" s="1"/>
     </row>
     <row r="225" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A225" s="13"/>
+      <c r="A225" s="12"/>
       <c r="B225" s="1"/>
       <c r="C225" s="1"/>
       <c r="D225" s="1"/>
@@ -7315,7 +7321,7 @@
       <c r="Y225" s="1"/>
     </row>
     <row r="226" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A226" s="13"/>
+      <c r="A226" s="12"/>
       <c r="B226" s="1"/>
       <c r="C226" s="1"/>
       <c r="D226" s="1"/>
@@ -7342,7 +7348,7 @@
       <c r="Y226" s="1"/>
     </row>
     <row r="227" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A227" s="13"/>
+      <c r="A227" s="12"/>
       <c r="B227" s="1"/>
       <c r="C227" s="1"/>
       <c r="D227" s="1"/>
@@ -7369,7 +7375,7 @@
       <c r="Y227" s="1"/>
     </row>
     <row r="228" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A228" s="13"/>
+      <c r="A228" s="12"/>
       <c r="B228" s="1"/>
       <c r="C228" s="1"/>
       <c r="D228" s="1"/>
@@ -7396,7 +7402,7 @@
       <c r="Y228" s="1"/>
     </row>
     <row r="229" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A229" s="13"/>
+      <c r="A229" s="12"/>
       <c r="B229" s="1"/>
       <c r="C229" s="1"/>
       <c r="D229" s="1"/>
@@ -7423,7 +7429,7 @@
       <c r="Y229" s="1"/>
     </row>
     <row r="230" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A230" s="13"/>
+      <c r="A230" s="12"/>
       <c r="B230" s="1"/>
       <c r="C230" s="1"/>
       <c r="D230" s="1"/>
@@ -7450,7 +7456,7 @@
       <c r="Y230" s="1"/>
     </row>
     <row r="231" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A231" s="13"/>
+      <c r="A231" s="12"/>
       <c r="B231" s="1"/>
       <c r="C231" s="1"/>
       <c r="D231" s="1"/>
@@ -7477,7 +7483,7 @@
       <c r="Y231" s="1"/>
     </row>
     <row r="232" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A232" s="13"/>
+      <c r="A232" s="12"/>
       <c r="B232" s="1"/>
       <c r="C232" s="1"/>
       <c r="D232" s="1"/>
@@ -7504,7 +7510,7 @@
       <c r="Y232" s="1"/>
     </row>
     <row r="233" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A233" s="13"/>
+      <c r="A233" s="12"/>
       <c r="B233" s="1"/>
       <c r="C233" s="1"/>
       <c r="D233" s="1"/>
@@ -7531,7 +7537,7 @@
       <c r="Y233" s="1"/>
     </row>
     <row r="234" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A234" s="13"/>
+      <c r="A234" s="12"/>
       <c r="B234" s="1"/>
       <c r="C234" s="1"/>
       <c r="D234" s="1"/>
@@ -7558,2344 +7564,2344 @@
       <c r="Y234" s="1"/>
     </row>
     <row r="235" spans="1:25" ht="12.75">
-      <c r="A235" s="14"/>
+      <c r="A235" s="13"/>
     </row>
     <row r="236" spans="1:25" ht="12.75">
-      <c r="A236" s="14"/>
+      <c r="A236" s="13"/>
     </row>
     <row r="237" spans="1:25" ht="12.75">
-      <c r="A237" s="14"/>
+      <c r="A237" s="13"/>
     </row>
     <row r="238" spans="1:25" ht="12.75">
-      <c r="A238" s="14"/>
+      <c r="A238" s="13"/>
     </row>
     <row r="239" spans="1:25" ht="12.75">
-      <c r="A239" s="14"/>
+      <c r="A239" s="13"/>
     </row>
     <row r="240" spans="1:25" ht="12.75">
-      <c r="A240" s="14"/>
+      <c r="A240" s="13"/>
     </row>
     <row r="241" spans="1:1" ht="12.75">
-      <c r="A241" s="14"/>
+      <c r="A241" s="13"/>
     </row>
     <row r="242" spans="1:1" ht="12.75">
-      <c r="A242" s="14"/>
+      <c r="A242" s="13"/>
     </row>
     <row r="243" spans="1:1" ht="12.75">
-      <c r="A243" s="14"/>
+      <c r="A243" s="13"/>
     </row>
     <row r="244" spans="1:1" ht="12.75">
-      <c r="A244" s="14"/>
+      <c r="A244" s="13"/>
     </row>
     <row r="245" spans="1:1" ht="12.75">
-      <c r="A245" s="14"/>
+      <c r="A245" s="13"/>
     </row>
     <row r="246" spans="1:1" ht="12.75">
-      <c r="A246" s="14"/>
+      <c r="A246" s="13"/>
     </row>
     <row r="247" spans="1:1" ht="12.75">
-      <c r="A247" s="14"/>
+      <c r="A247" s="13"/>
     </row>
     <row r="248" spans="1:1" ht="12.75">
-      <c r="A248" s="14"/>
+      <c r="A248" s="13"/>
     </row>
     <row r="249" spans="1:1" ht="12.75">
-      <c r="A249" s="14"/>
+      <c r="A249" s="13"/>
     </row>
     <row r="250" spans="1:1" ht="12.75">
-      <c r="A250" s="14"/>
+      <c r="A250" s="13"/>
     </row>
     <row r="251" spans="1:1" ht="12.75">
-      <c r="A251" s="14"/>
+      <c r="A251" s="13"/>
     </row>
     <row r="252" spans="1:1" ht="12.75">
-      <c r="A252" s="14"/>
+      <c r="A252" s="13"/>
     </row>
     <row r="253" spans="1:1" ht="12.75">
-      <c r="A253" s="14"/>
+      <c r="A253" s="13"/>
     </row>
     <row r="254" spans="1:1" ht="12.75">
-      <c r="A254" s="14"/>
+      <c r="A254" s="13"/>
     </row>
     <row r="255" spans="1:1" ht="12.75">
-      <c r="A255" s="14"/>
+      <c r="A255" s="13"/>
     </row>
     <row r="256" spans="1:1" ht="12.75">
-      <c r="A256" s="14"/>
+      <c r="A256" s="13"/>
     </row>
     <row r="257" spans="1:1" ht="12.75">
-      <c r="A257" s="14"/>
+      <c r="A257" s="13"/>
     </row>
     <row r="258" spans="1:1" ht="12.75">
-      <c r="A258" s="14"/>
+      <c r="A258" s="13"/>
     </row>
     <row r="259" spans="1:1" ht="12.75">
-      <c r="A259" s="14"/>
+      <c r="A259" s="13"/>
     </row>
     <row r="260" spans="1:1" ht="12.75">
-      <c r="A260" s="14"/>
+      <c r="A260" s="13"/>
     </row>
     <row r="261" spans="1:1" ht="12.75">
-      <c r="A261" s="14"/>
+      <c r="A261" s="13"/>
     </row>
     <row r="262" spans="1:1" ht="12.75">
-      <c r="A262" s="14"/>
+      <c r="A262" s="13"/>
     </row>
     <row r="263" spans="1:1" ht="12.75">
-      <c r="A263" s="14"/>
+      <c r="A263" s="13"/>
     </row>
     <row r="264" spans="1:1" ht="12.75">
-      <c r="A264" s="14"/>
+      <c r="A264" s="13"/>
     </row>
     <row r="265" spans="1:1" ht="12.75">
-      <c r="A265" s="14"/>
+      <c r="A265" s="13"/>
     </row>
     <row r="266" spans="1:1" ht="12.75">
-      <c r="A266" s="14"/>
+      <c r="A266" s="13"/>
     </row>
     <row r="267" spans="1:1" ht="12.75">
-      <c r="A267" s="14"/>
+      <c r="A267" s="13"/>
     </row>
     <row r="268" spans="1:1" ht="12.75">
-      <c r="A268" s="14"/>
+      <c r="A268" s="13"/>
     </row>
     <row r="269" spans="1:1" ht="12.75">
-      <c r="A269" s="14"/>
+      <c r="A269" s="13"/>
     </row>
     <row r="270" spans="1:1" ht="12.75">
-      <c r="A270" s="14"/>
+      <c r="A270" s="13"/>
     </row>
     <row r="271" spans="1:1" ht="12.75">
-      <c r="A271" s="14"/>
+      <c r="A271" s="13"/>
     </row>
     <row r="272" spans="1:1" ht="12.75">
-      <c r="A272" s="14"/>
+      <c r="A272" s="13"/>
     </row>
     <row r="273" spans="1:1" ht="12.75">
-      <c r="A273" s="14"/>
+      <c r="A273" s="13"/>
     </row>
     <row r="274" spans="1:1" ht="12.75">
-      <c r="A274" s="14"/>
+      <c r="A274" s="13"/>
     </row>
     <row r="275" spans="1:1" ht="12.75">
-      <c r="A275" s="14"/>
+      <c r="A275" s="13"/>
     </row>
     <row r="276" spans="1:1" ht="12.75">
-      <c r="A276" s="14"/>
+      <c r="A276" s="13"/>
     </row>
     <row r="277" spans="1:1" ht="12.75">
-      <c r="A277" s="14"/>
+      <c r="A277" s="13"/>
     </row>
     <row r="278" spans="1:1" ht="12.75">
-      <c r="A278" s="14"/>
+      <c r="A278" s="13"/>
     </row>
     <row r="279" spans="1:1" ht="12.75">
-      <c r="A279" s="14"/>
+      <c r="A279" s="13"/>
     </row>
     <row r="280" spans="1:1" ht="12.75">
-      <c r="A280" s="14"/>
+      <c r="A280" s="13"/>
     </row>
     <row r="281" spans="1:1" ht="12.75">
-      <c r="A281" s="14"/>
+      <c r="A281" s="13"/>
     </row>
     <row r="282" spans="1:1" ht="12.75">
-      <c r="A282" s="14"/>
+      <c r="A282" s="13"/>
     </row>
     <row r="283" spans="1:1" ht="12.75">
-      <c r="A283" s="14"/>
+      <c r="A283" s="13"/>
     </row>
     <row r="284" spans="1:1" ht="12.75">
-      <c r="A284" s="14"/>
+      <c r="A284" s="13"/>
     </row>
     <row r="285" spans="1:1" ht="12.75">
-      <c r="A285" s="14"/>
+      <c r="A285" s="13"/>
     </row>
     <row r="286" spans="1:1" ht="12.75">
-      <c r="A286" s="14"/>
+      <c r="A286" s="13"/>
     </row>
     <row r="287" spans="1:1" ht="12.75">
-      <c r="A287" s="14"/>
+      <c r="A287" s="13"/>
     </row>
     <row r="288" spans="1:1" ht="12.75">
-      <c r="A288" s="14"/>
+      <c r="A288" s="13"/>
     </row>
     <row r="289" spans="1:1" ht="12.75">
-      <c r="A289" s="14"/>
+      <c r="A289" s="13"/>
     </row>
     <row r="290" spans="1:1" ht="12.75">
-      <c r="A290" s="14"/>
+      <c r="A290" s="13"/>
     </row>
     <row r="291" spans="1:1" ht="12.75">
-      <c r="A291" s="14"/>
+      <c r="A291" s="13"/>
     </row>
     <row r="292" spans="1:1" ht="12.75">
-      <c r="A292" s="14"/>
+      <c r="A292" s="13"/>
     </row>
     <row r="293" spans="1:1" ht="12.75">
-      <c r="A293" s="14"/>
+      <c r="A293" s="13"/>
     </row>
     <row r="294" spans="1:1" ht="12.75">
-      <c r="A294" s="14"/>
+      <c r="A294" s="13"/>
     </row>
     <row r="295" spans="1:1" ht="12.75">
-      <c r="A295" s="14"/>
+      <c r="A295" s="13"/>
     </row>
     <row r="296" spans="1:1" ht="12.75">
-      <c r="A296" s="14"/>
+      <c r="A296" s="13"/>
     </row>
     <row r="297" spans="1:1" ht="12.75">
-      <c r="A297" s="14"/>
+      <c r="A297" s="13"/>
     </row>
     <row r="298" spans="1:1" ht="12.75">
-      <c r="A298" s="14"/>
+      <c r="A298" s="13"/>
     </row>
     <row r="299" spans="1:1" ht="12.75">
-      <c r="A299" s="14"/>
+      <c r="A299" s="13"/>
     </row>
     <row r="300" spans="1:1" ht="12.75">
-      <c r="A300" s="14"/>
+      <c r="A300" s="13"/>
     </row>
     <row r="301" spans="1:1" ht="12.75">
-      <c r="A301" s="14"/>
+      <c r="A301" s="13"/>
     </row>
     <row r="302" spans="1:1" ht="12.75">
-      <c r="A302" s="14"/>
+      <c r="A302" s="13"/>
     </row>
     <row r="303" spans="1:1" ht="12.75">
-      <c r="A303" s="14"/>
+      <c r="A303" s="13"/>
     </row>
     <row r="304" spans="1:1" ht="12.75">
-      <c r="A304" s="14"/>
+      <c r="A304" s="13"/>
     </row>
     <row r="305" spans="1:1" ht="12.75">
-      <c r="A305" s="14"/>
+      <c r="A305" s="13"/>
     </row>
     <row r="306" spans="1:1" ht="12.75">
-      <c r="A306" s="14"/>
+      <c r="A306" s="13"/>
     </row>
     <row r="307" spans="1:1" ht="12.75">
-      <c r="A307" s="14"/>
+      <c r="A307" s="13"/>
     </row>
     <row r="308" spans="1:1" ht="12.75">
-      <c r="A308" s="14"/>
+      <c r="A308" s="13"/>
     </row>
     <row r="309" spans="1:1" ht="12.75">
-      <c r="A309" s="14"/>
+      <c r="A309" s="13"/>
     </row>
     <row r="310" spans="1:1" ht="12.75">
-      <c r="A310" s="14"/>
+      <c r="A310" s="13"/>
     </row>
     <row r="311" spans="1:1" ht="12.75">
-      <c r="A311" s="14"/>
+      <c r="A311" s="13"/>
     </row>
     <row r="312" spans="1:1" ht="12.75">
-      <c r="A312" s="14"/>
+      <c r="A312" s="13"/>
     </row>
     <row r="313" spans="1:1" ht="12.75">
-      <c r="A313" s="14"/>
+      <c r="A313" s="13"/>
     </row>
     <row r="314" spans="1:1" ht="12.75">
-      <c r="A314" s="14"/>
+      <c r="A314" s="13"/>
     </row>
     <row r="315" spans="1:1" ht="12.75">
-      <c r="A315" s="14"/>
+      <c r="A315" s="13"/>
     </row>
     <row r="316" spans="1:1" ht="12.75">
-      <c r="A316" s="14"/>
+      <c r="A316" s="13"/>
     </row>
     <row r="317" spans="1:1" ht="12.75">
-      <c r="A317" s="14"/>
+      <c r="A317" s="13"/>
     </row>
     <row r="318" spans="1:1" ht="12.75">
-      <c r="A318" s="14"/>
+      <c r="A318" s="13"/>
     </row>
     <row r="319" spans="1:1" ht="12.75">
-      <c r="A319" s="14"/>
+      <c r="A319" s="13"/>
     </row>
     <row r="320" spans="1:1" ht="12.75">
-      <c r="A320" s="14"/>
+      <c r="A320" s="13"/>
     </row>
     <row r="321" spans="1:1" ht="12.75">
-      <c r="A321" s="14"/>
+      <c r="A321" s="13"/>
     </row>
     <row r="322" spans="1:1" ht="12.75">
-      <c r="A322" s="14"/>
+      <c r="A322" s="13"/>
     </row>
     <row r="323" spans="1:1" ht="12.75">
-      <c r="A323" s="14"/>
+      <c r="A323" s="13"/>
     </row>
     <row r="324" spans="1:1" ht="12.75">
-      <c r="A324" s="14"/>
+      <c r="A324" s="13"/>
     </row>
     <row r="325" spans="1:1" ht="12.75">
-      <c r="A325" s="14"/>
+      <c r="A325" s="13"/>
     </row>
     <row r="326" spans="1:1" ht="12.75">
-      <c r="A326" s="14"/>
+      <c r="A326" s="13"/>
     </row>
     <row r="327" spans="1:1" ht="12.75">
-      <c r="A327" s="14"/>
+      <c r="A327" s="13"/>
     </row>
     <row r="328" spans="1:1" ht="12.75">
-      <c r="A328" s="14"/>
+      <c r="A328" s="13"/>
     </row>
     <row r="329" spans="1:1" ht="12.75">
-      <c r="A329" s="14"/>
+      <c r="A329" s="13"/>
     </row>
     <row r="330" spans="1:1" ht="12.75">
-      <c r="A330" s="14"/>
+      <c r="A330" s="13"/>
     </row>
     <row r="331" spans="1:1" ht="12.75">
-      <c r="A331" s="14"/>
+      <c r="A331" s="13"/>
     </row>
     <row r="332" spans="1:1" ht="12.75">
-      <c r="A332" s="14"/>
+      <c r="A332" s="13"/>
     </row>
     <row r="333" spans="1:1" ht="12.75">
-      <c r="A333" s="14"/>
+      <c r="A333" s="13"/>
     </row>
     <row r="334" spans="1:1" ht="12.75">
-      <c r="A334" s="14"/>
+      <c r="A334" s="13"/>
     </row>
     <row r="335" spans="1:1" ht="12.75">
-      <c r="A335" s="14"/>
+      <c r="A335" s="13"/>
     </row>
     <row r="336" spans="1:1" ht="12.75">
-      <c r="A336" s="14"/>
+      <c r="A336" s="13"/>
     </row>
     <row r="337" spans="1:1" ht="12.75">
-      <c r="A337" s="14"/>
+      <c r="A337" s="13"/>
     </row>
     <row r="338" spans="1:1" ht="12.75">
-      <c r="A338" s="14"/>
+      <c r="A338" s="13"/>
     </row>
     <row r="339" spans="1:1" ht="12.75">
-      <c r="A339" s="14"/>
+      <c r="A339" s="13"/>
     </row>
     <row r="340" spans="1:1" ht="12.75">
-      <c r="A340" s="14"/>
+      <c r="A340" s="13"/>
     </row>
     <row r="341" spans="1:1" ht="12.75">
-      <c r="A341" s="14"/>
+      <c r="A341" s="13"/>
     </row>
     <row r="342" spans="1:1" ht="12.75">
-      <c r="A342" s="14"/>
+      <c r="A342" s="13"/>
     </row>
     <row r="343" spans="1:1" ht="12.75">
-      <c r="A343" s="14"/>
+      <c r="A343" s="13"/>
     </row>
     <row r="344" spans="1:1" ht="12.75">
-      <c r="A344" s="14"/>
+      <c r="A344" s="13"/>
     </row>
     <row r="345" spans="1:1" ht="12.75">
-      <c r="A345" s="14"/>
+      <c r="A345" s="13"/>
     </row>
     <row r="346" spans="1:1" ht="12.75">
-      <c r="A346" s="14"/>
+      <c r="A346" s="13"/>
     </row>
     <row r="347" spans="1:1" ht="12.75">
-      <c r="A347" s="14"/>
+      <c r="A347" s="13"/>
     </row>
     <row r="348" spans="1:1" ht="12.75">
-      <c r="A348" s="14"/>
+      <c r="A348" s="13"/>
     </row>
     <row r="349" spans="1:1" ht="12.75">
-      <c r="A349" s="14"/>
+      <c r="A349" s="13"/>
     </row>
     <row r="350" spans="1:1" ht="12.75">
-      <c r="A350" s="14"/>
+      <c r="A350" s="13"/>
     </row>
     <row r="351" spans="1:1" ht="12.75">
-      <c r="A351" s="14"/>
+      <c r="A351" s="13"/>
     </row>
     <row r="352" spans="1:1" ht="12.75">
-      <c r="A352" s="14"/>
+      <c r="A352" s="13"/>
     </row>
     <row r="353" spans="1:1" ht="12.75">
-      <c r="A353" s="14"/>
+      <c r="A353" s="13"/>
     </row>
     <row r="354" spans="1:1" ht="12.75">
-      <c r="A354" s="14"/>
+      <c r="A354" s="13"/>
     </row>
     <row r="355" spans="1:1" ht="12.75">
-      <c r="A355" s="14"/>
+      <c r="A355" s="13"/>
     </row>
     <row r="356" spans="1:1" ht="12.75">
-      <c r="A356" s="14"/>
+      <c r="A356" s="13"/>
     </row>
     <row r="357" spans="1:1" ht="12.75">
-      <c r="A357" s="14"/>
+      <c r="A357" s="13"/>
     </row>
     <row r="358" spans="1:1" ht="12.75">
-      <c r="A358" s="14"/>
+      <c r="A358" s="13"/>
     </row>
     <row r="359" spans="1:1" ht="12.75">
-      <c r="A359" s="14"/>
+      <c r="A359" s="13"/>
     </row>
     <row r="360" spans="1:1" ht="12.75">
-      <c r="A360" s="14"/>
+      <c r="A360" s="13"/>
     </row>
     <row r="361" spans="1:1" ht="12.75">
-      <c r="A361" s="14"/>
+      <c r="A361" s="13"/>
     </row>
     <row r="362" spans="1:1" ht="12.75">
-      <c r="A362" s="14"/>
+      <c r="A362" s="13"/>
     </row>
     <row r="363" spans="1:1" ht="12.75">
-      <c r="A363" s="14"/>
+      <c r="A363" s="13"/>
     </row>
     <row r="364" spans="1:1" ht="12.75">
-      <c r="A364" s="14"/>
+      <c r="A364" s="13"/>
     </row>
     <row r="365" spans="1:1" ht="12.75">
-      <c r="A365" s="14"/>
+      <c r="A365" s="13"/>
     </row>
     <row r="366" spans="1:1" ht="12.75">
-      <c r="A366" s="14"/>
+      <c r="A366" s="13"/>
     </row>
     <row r="367" spans="1:1" ht="12.75">
-      <c r="A367" s="14"/>
+      <c r="A367" s="13"/>
     </row>
     <row r="368" spans="1:1" ht="12.75">
-      <c r="A368" s="14"/>
+      <c r="A368" s="13"/>
     </row>
     <row r="369" spans="1:1" ht="12.75">
-      <c r="A369" s="14"/>
+      <c r="A369" s="13"/>
     </row>
     <row r="370" spans="1:1" ht="12.75">
-      <c r="A370" s="14"/>
+      <c r="A370" s="13"/>
     </row>
     <row r="371" spans="1:1" ht="12.75">
-      <c r="A371" s="14"/>
+      <c r="A371" s="13"/>
     </row>
     <row r="372" spans="1:1" ht="12.75">
-      <c r="A372" s="14"/>
+      <c r="A372" s="13"/>
     </row>
     <row r="373" spans="1:1" ht="12.75">
-      <c r="A373" s="14"/>
+      <c r="A373" s="13"/>
     </row>
     <row r="374" spans="1:1" ht="12.75">
-      <c r="A374" s="14"/>
+      <c r="A374" s="13"/>
     </row>
     <row r="375" spans="1:1" ht="12.75">
-      <c r="A375" s="14"/>
+      <c r="A375" s="13"/>
     </row>
     <row r="376" spans="1:1" ht="12.75">
-      <c r="A376" s="14"/>
+      <c r="A376" s="13"/>
     </row>
     <row r="377" spans="1:1" ht="12.75">
-      <c r="A377" s="14"/>
+      <c r="A377" s="13"/>
     </row>
     <row r="378" spans="1:1" ht="12.75">
-      <c r="A378" s="14"/>
+      <c r="A378" s="13"/>
     </row>
     <row r="379" spans="1:1" ht="12.75">
-      <c r="A379" s="14"/>
+      <c r="A379" s="13"/>
     </row>
     <row r="380" spans="1:1" ht="12.75">
-      <c r="A380" s="14"/>
+      <c r="A380" s="13"/>
     </row>
     <row r="381" spans="1:1" ht="12.75">
-      <c r="A381" s="14"/>
+      <c r="A381" s="13"/>
     </row>
     <row r="382" spans="1:1" ht="12.75">
-      <c r="A382" s="14"/>
+      <c r="A382" s="13"/>
     </row>
     <row r="383" spans="1:1" ht="12.75">
-      <c r="A383" s="14"/>
+      <c r="A383" s="13"/>
     </row>
     <row r="384" spans="1:1" ht="12.75">
-      <c r="A384" s="14"/>
+      <c r="A384" s="13"/>
     </row>
     <row r="385" spans="1:1" ht="12.75">
-      <c r="A385" s="14"/>
+      <c r="A385" s="13"/>
     </row>
     <row r="386" spans="1:1" ht="12.75">
-      <c r="A386" s="14"/>
+      <c r="A386" s="13"/>
     </row>
     <row r="387" spans="1:1" ht="12.75">
-      <c r="A387" s="14"/>
+      <c r="A387" s="13"/>
     </row>
     <row r="388" spans="1:1" ht="12.75">
-      <c r="A388" s="14"/>
+      <c r="A388" s="13"/>
     </row>
     <row r="389" spans="1:1" ht="12.75">
-      <c r="A389" s="14"/>
+      <c r="A389" s="13"/>
     </row>
     <row r="390" spans="1:1" ht="12.75">
-      <c r="A390" s="14"/>
+      <c r="A390" s="13"/>
     </row>
     <row r="391" spans="1:1" ht="12.75">
-      <c r="A391" s="14"/>
+      <c r="A391" s="13"/>
     </row>
     <row r="392" spans="1:1" ht="12.75">
-      <c r="A392" s="14"/>
+      <c r="A392" s="13"/>
     </row>
     <row r="393" spans="1:1" ht="12.75">
-      <c r="A393" s="14"/>
+      <c r="A393" s="13"/>
     </row>
     <row r="394" spans="1:1" ht="12.75">
-      <c r="A394" s="14"/>
+      <c r="A394" s="13"/>
     </row>
     <row r="395" spans="1:1" ht="12.75">
-      <c r="A395" s="14"/>
+      <c r="A395" s="13"/>
     </row>
     <row r="396" spans="1:1" ht="12.75">
-      <c r="A396" s="14"/>
+      <c r="A396" s="13"/>
     </row>
     <row r="397" spans="1:1" ht="12.75">
-      <c r="A397" s="14"/>
+      <c r="A397" s="13"/>
     </row>
     <row r="398" spans="1:1" ht="12.75">
-      <c r="A398" s="14"/>
+      <c r="A398" s="13"/>
     </row>
     <row r="399" spans="1:1" ht="12.75">
-      <c r="A399" s="14"/>
+      <c r="A399" s="13"/>
     </row>
     <row r="400" spans="1:1" ht="12.75">
-      <c r="A400" s="14"/>
+      <c r="A400" s="13"/>
     </row>
     <row r="401" spans="1:1" ht="12.75">
-      <c r="A401" s="14"/>
+      <c r="A401" s="13"/>
     </row>
     <row r="402" spans="1:1" ht="12.75">
-      <c r="A402" s="14"/>
+      <c r="A402" s="13"/>
     </row>
     <row r="403" spans="1:1" ht="12.75">
-      <c r="A403" s="14"/>
+      <c r="A403" s="13"/>
     </row>
     <row r="404" spans="1:1" ht="12.75">
-      <c r="A404" s="14"/>
+      <c r="A404" s="13"/>
     </row>
     <row r="405" spans="1:1" ht="12.75">
-      <c r="A405" s="14"/>
+      <c r="A405" s="13"/>
     </row>
     <row r="406" spans="1:1" ht="12.75">
-      <c r="A406" s="14"/>
+      <c r="A406" s="13"/>
     </row>
     <row r="407" spans="1:1" ht="12.75">
-      <c r="A407" s="14"/>
+      <c r="A407" s="13"/>
     </row>
     <row r="408" spans="1:1" ht="12.75">
-      <c r="A408" s="14"/>
+      <c r="A408" s="13"/>
     </row>
     <row r="409" spans="1:1" ht="12.75">
-      <c r="A409" s="14"/>
+      <c r="A409" s="13"/>
     </row>
     <row r="410" spans="1:1" ht="12.75">
-      <c r="A410" s="14"/>
+      <c r="A410" s="13"/>
     </row>
     <row r="411" spans="1:1" ht="12.75">
-      <c r="A411" s="14"/>
+      <c r="A411" s="13"/>
     </row>
     <row r="412" spans="1:1" ht="12.75">
-      <c r="A412" s="14"/>
+      <c r="A412" s="13"/>
     </row>
     <row r="413" spans="1:1" ht="12.75">
-      <c r="A413" s="14"/>
+      <c r="A413" s="13"/>
     </row>
     <row r="414" spans="1:1" ht="12.75">
-      <c r="A414" s="14"/>
+      <c r="A414" s="13"/>
     </row>
     <row r="415" spans="1:1" ht="12.75">
-      <c r="A415" s="14"/>
+      <c r="A415" s="13"/>
     </row>
     <row r="416" spans="1:1" ht="12.75">
-      <c r="A416" s="14"/>
+      <c r="A416" s="13"/>
     </row>
     <row r="417" spans="1:1" ht="12.75">
-      <c r="A417" s="14"/>
+      <c r="A417" s="13"/>
     </row>
     <row r="418" spans="1:1" ht="12.75">
-      <c r="A418" s="14"/>
+      <c r="A418" s="13"/>
     </row>
     <row r="419" spans="1:1" ht="12.75">
-      <c r="A419" s="14"/>
+      <c r="A419" s="13"/>
     </row>
     <row r="420" spans="1:1" ht="12.75">
-      <c r="A420" s="14"/>
+      <c r="A420" s="13"/>
     </row>
     <row r="421" spans="1:1" ht="12.75">
-      <c r="A421" s="14"/>
+      <c r="A421" s="13"/>
     </row>
     <row r="422" spans="1:1" ht="12.75">
-      <c r="A422" s="14"/>
+      <c r="A422" s="13"/>
     </row>
     <row r="423" spans="1:1" ht="12.75">
-      <c r="A423" s="14"/>
+      <c r="A423" s="13"/>
     </row>
     <row r="424" spans="1:1" ht="12.75">
-      <c r="A424" s="14"/>
+      <c r="A424" s="13"/>
     </row>
     <row r="425" spans="1:1" ht="12.75">
-      <c r="A425" s="14"/>
+      <c r="A425" s="13"/>
     </row>
     <row r="426" spans="1:1" ht="12.75">
-      <c r="A426" s="14"/>
+      <c r="A426" s="13"/>
     </row>
     <row r="427" spans="1:1" ht="12.75">
-      <c r="A427" s="14"/>
+      <c r="A427" s="13"/>
     </row>
     <row r="428" spans="1:1" ht="12.75">
-      <c r="A428" s="14"/>
+      <c r="A428" s="13"/>
     </row>
     <row r="429" spans="1:1" ht="12.75">
-      <c r="A429" s="14"/>
+      <c r="A429" s="13"/>
     </row>
     <row r="430" spans="1:1" ht="12.75">
-      <c r="A430" s="14"/>
+      <c r="A430" s="13"/>
     </row>
     <row r="431" spans="1:1" ht="12.75">
-      <c r="A431" s="14"/>
+      <c r="A431" s="13"/>
     </row>
     <row r="432" spans="1:1" ht="12.75">
-      <c r="A432" s="14"/>
+      <c r="A432" s="13"/>
     </row>
     <row r="433" spans="1:1" ht="12.75">
-      <c r="A433" s="14"/>
+      <c r="A433" s="13"/>
     </row>
     <row r="434" spans="1:1" ht="12.75">
-      <c r="A434" s="14"/>
+      <c r="A434" s="13"/>
     </row>
     <row r="435" spans="1:1" ht="12.75">
-      <c r="A435" s="14"/>
+      <c r="A435" s="13"/>
     </row>
     <row r="436" spans="1:1" ht="12.75">
-      <c r="A436" s="14"/>
+      <c r="A436" s="13"/>
     </row>
     <row r="437" spans="1:1" ht="12.75">
-      <c r="A437" s="14"/>
+      <c r="A437" s="13"/>
     </row>
     <row r="438" spans="1:1" ht="12.75">
-      <c r="A438" s="14"/>
+      <c r="A438" s="13"/>
     </row>
     <row r="439" spans="1:1" ht="12.75">
-      <c r="A439" s="14"/>
+      <c r="A439" s="13"/>
     </row>
     <row r="440" spans="1:1" ht="12.75">
-      <c r="A440" s="14"/>
+      <c r="A440" s="13"/>
     </row>
     <row r="441" spans="1:1" ht="12.75">
-      <c r="A441" s="14"/>
+      <c r="A441" s="13"/>
     </row>
     <row r="442" spans="1:1" ht="12.75">
-      <c r="A442" s="14"/>
+      <c r="A442" s="13"/>
     </row>
     <row r="443" spans="1:1" ht="12.75">
-      <c r="A443" s="14"/>
+      <c r="A443" s="13"/>
     </row>
     <row r="444" spans="1:1" ht="12.75">
-      <c r="A444" s="14"/>
+      <c r="A444" s="13"/>
     </row>
     <row r="445" spans="1:1" ht="12.75">
-      <c r="A445" s="14"/>
+      <c r="A445" s="13"/>
     </row>
     <row r="446" spans="1:1" ht="12.75">
-      <c r="A446" s="14"/>
+      <c r="A446" s="13"/>
     </row>
     <row r="447" spans="1:1" ht="12.75">
-      <c r="A447" s="14"/>
+      <c r="A447" s="13"/>
     </row>
     <row r="448" spans="1:1" ht="12.75">
-      <c r="A448" s="14"/>
+      <c r="A448" s="13"/>
     </row>
     <row r="449" spans="1:1" ht="12.75">
-      <c r="A449" s="14"/>
+      <c r="A449" s="13"/>
     </row>
     <row r="450" spans="1:1" ht="12.75">
-      <c r="A450" s="14"/>
+      <c r="A450" s="13"/>
     </row>
     <row r="451" spans="1:1" ht="12.75">
-      <c r="A451" s="14"/>
+      <c r="A451" s="13"/>
     </row>
     <row r="452" spans="1:1" ht="12.75">
-      <c r="A452" s="14"/>
+      <c r="A452" s="13"/>
     </row>
     <row r="453" spans="1:1" ht="12.75">
-      <c r="A453" s="14"/>
+      <c r="A453" s="13"/>
     </row>
     <row r="454" spans="1:1" ht="12.75">
-      <c r="A454" s="14"/>
+      <c r="A454" s="13"/>
     </row>
     <row r="455" spans="1:1" ht="12.75">
-      <c r="A455" s="14"/>
+      <c r="A455" s="13"/>
     </row>
     <row r="456" spans="1:1" ht="12.75">
-      <c r="A456" s="14"/>
+      <c r="A456" s="13"/>
     </row>
     <row r="457" spans="1:1" ht="12.75">
-      <c r="A457" s="14"/>
+      <c r="A457" s="13"/>
     </row>
     <row r="458" spans="1:1" ht="12.75">
-      <c r="A458" s="14"/>
+      <c r="A458" s="13"/>
     </row>
     <row r="459" spans="1:1" ht="12.75">
-      <c r="A459" s="14"/>
+      <c r="A459" s="13"/>
     </row>
     <row r="460" spans="1:1" ht="12.75">
-      <c r="A460" s="14"/>
+      <c r="A460" s="13"/>
     </row>
     <row r="461" spans="1:1" ht="12.75">
-      <c r="A461" s="14"/>
+      <c r="A461" s="13"/>
     </row>
     <row r="462" spans="1:1" ht="12.75">
-      <c r="A462" s="14"/>
+      <c r="A462" s="13"/>
     </row>
     <row r="463" spans="1:1" ht="12.75">
-      <c r="A463" s="14"/>
+      <c r="A463" s="13"/>
     </row>
     <row r="464" spans="1:1" ht="12.75">
-      <c r="A464" s="14"/>
+      <c r="A464" s="13"/>
     </row>
     <row r="465" spans="1:1" ht="12.75">
-      <c r="A465" s="14"/>
+      <c r="A465" s="13"/>
     </row>
     <row r="466" spans="1:1" ht="12.75">
-      <c r="A466" s="14"/>
+      <c r="A466" s="13"/>
     </row>
     <row r="467" spans="1:1" ht="12.75">
-      <c r="A467" s="14"/>
+      <c r="A467" s="13"/>
     </row>
     <row r="468" spans="1:1" ht="12.75">
-      <c r="A468" s="14"/>
+      <c r="A468" s="13"/>
     </row>
     <row r="469" spans="1:1" ht="12.75">
-      <c r="A469" s="14"/>
+      <c r="A469" s="13"/>
     </row>
     <row r="470" spans="1:1" ht="12.75">
-      <c r="A470" s="14"/>
+      <c r="A470" s="13"/>
     </row>
     <row r="471" spans="1:1" ht="12.75">
-      <c r="A471" s="14"/>
+      <c r="A471" s="13"/>
     </row>
     <row r="472" spans="1:1" ht="12.75">
-      <c r="A472" s="14"/>
+      <c r="A472" s="13"/>
     </row>
     <row r="473" spans="1:1" ht="12.75">
-      <c r="A473" s="14"/>
+      <c r="A473" s="13"/>
     </row>
     <row r="474" spans="1:1" ht="12.75">
-      <c r="A474" s="14"/>
+      <c r="A474" s="13"/>
     </row>
     <row r="475" spans="1:1" ht="12.75">
-      <c r="A475" s="14"/>
+      <c r="A475" s="13"/>
     </row>
     <row r="476" spans="1:1" ht="12.75">
-      <c r="A476" s="14"/>
+      <c r="A476" s="13"/>
     </row>
     <row r="477" spans="1:1" ht="12.75">
-      <c r="A477" s="14"/>
+      <c r="A477" s="13"/>
     </row>
     <row r="478" spans="1:1" ht="12.75">
-      <c r="A478" s="14"/>
+      <c r="A478" s="13"/>
     </row>
     <row r="479" spans="1:1" ht="12.75">
-      <c r="A479" s="14"/>
+      <c r="A479" s="13"/>
     </row>
     <row r="480" spans="1:1" ht="12.75">
-      <c r="A480" s="14"/>
+      <c r="A480" s="13"/>
     </row>
     <row r="481" spans="1:1" ht="12.75">
-      <c r="A481" s="14"/>
+      <c r="A481" s="13"/>
     </row>
     <row r="482" spans="1:1" ht="12.75">
-      <c r="A482" s="14"/>
+      <c r="A482" s="13"/>
     </row>
     <row r="483" spans="1:1" ht="12.75">
-      <c r="A483" s="14"/>
+      <c r="A483" s="13"/>
     </row>
     <row r="484" spans="1:1" ht="12.75">
-      <c r="A484" s="14"/>
+      <c r="A484" s="13"/>
     </row>
     <row r="485" spans="1:1" ht="12.75">
-      <c r="A485" s="14"/>
+      <c r="A485" s="13"/>
     </row>
     <row r="486" spans="1:1" ht="12.75">
-      <c r="A486" s="14"/>
+      <c r="A486" s="13"/>
     </row>
     <row r="487" spans="1:1" ht="12.75">
-      <c r="A487" s="14"/>
+      <c r="A487" s="13"/>
     </row>
     <row r="488" spans="1:1" ht="12.75">
-      <c r="A488" s="14"/>
+      <c r="A488" s="13"/>
     </row>
     <row r="489" spans="1:1" ht="12.75">
-      <c r="A489" s="14"/>
+      <c r="A489" s="13"/>
     </row>
     <row r="490" spans="1:1" ht="12.75">
-      <c r="A490" s="14"/>
+      <c r="A490" s="13"/>
     </row>
     <row r="491" spans="1:1" ht="12.75">
-      <c r="A491" s="14"/>
+      <c r="A491" s="13"/>
     </row>
     <row r="492" spans="1:1" ht="12.75">
-      <c r="A492" s="14"/>
+      <c r="A492" s="13"/>
     </row>
     <row r="493" spans="1:1" ht="12.75">
-      <c r="A493" s="14"/>
+      <c r="A493" s="13"/>
     </row>
     <row r="494" spans="1:1" ht="12.75">
-      <c r="A494" s="14"/>
+      <c r="A494" s="13"/>
     </row>
     <row r="495" spans="1:1" ht="12.75">
-      <c r="A495" s="14"/>
+      <c r="A495" s="13"/>
     </row>
     <row r="496" spans="1:1" ht="12.75">
-      <c r="A496" s="14"/>
+      <c r="A496" s="13"/>
     </row>
     <row r="497" spans="1:1" ht="12.75">
-      <c r="A497" s="14"/>
+      <c r="A497" s="13"/>
     </row>
     <row r="498" spans="1:1" ht="12.75">
-      <c r="A498" s="14"/>
+      <c r="A498" s="13"/>
     </row>
     <row r="499" spans="1:1" ht="12.75">
-      <c r="A499" s="14"/>
+      <c r="A499" s="13"/>
     </row>
     <row r="500" spans="1:1" ht="12.75">
-      <c r="A500" s="14"/>
+      <c r="A500" s="13"/>
     </row>
     <row r="501" spans="1:1" ht="12.75">
-      <c r="A501" s="14"/>
+      <c r="A501" s="13"/>
     </row>
     <row r="502" spans="1:1" ht="12.75">
-      <c r="A502" s="14"/>
+      <c r="A502" s="13"/>
     </row>
     <row r="503" spans="1:1" ht="12.75">
-      <c r="A503" s="14"/>
+      <c r="A503" s="13"/>
     </row>
     <row r="504" spans="1:1" ht="12.75">
-      <c r="A504" s="14"/>
+      <c r="A504" s="13"/>
     </row>
     <row r="505" spans="1:1" ht="12.75">
-      <c r="A505" s="14"/>
+      <c r="A505" s="13"/>
     </row>
     <row r="506" spans="1:1" ht="12.75">
-      <c r="A506" s="14"/>
+      <c r="A506" s="13"/>
     </row>
     <row r="507" spans="1:1" ht="12.75">
-      <c r="A507" s="14"/>
+      <c r="A507" s="13"/>
     </row>
     <row r="508" spans="1:1" ht="12.75">
-      <c r="A508" s="14"/>
+      <c r="A508" s="13"/>
     </row>
     <row r="509" spans="1:1" ht="12.75">
-      <c r="A509" s="14"/>
+      <c r="A509" s="13"/>
     </row>
     <row r="510" spans="1:1" ht="12.75">
-      <c r="A510" s="14"/>
+      <c r="A510" s="13"/>
     </row>
     <row r="511" spans="1:1" ht="12.75">
-      <c r="A511" s="14"/>
+      <c r="A511" s="13"/>
     </row>
     <row r="512" spans="1:1" ht="12.75">
-      <c r="A512" s="14"/>
+      <c r="A512" s="13"/>
     </row>
     <row r="513" spans="1:1" ht="12.75">
-      <c r="A513" s="14"/>
+      <c r="A513" s="13"/>
     </row>
     <row r="514" spans="1:1" ht="12.75">
-      <c r="A514" s="14"/>
+      <c r="A514" s="13"/>
     </row>
     <row r="515" spans="1:1" ht="12.75">
-      <c r="A515" s="14"/>
+      <c r="A515" s="13"/>
     </row>
     <row r="516" spans="1:1" ht="12.75">
-      <c r="A516" s="14"/>
+      <c r="A516" s="13"/>
     </row>
     <row r="517" spans="1:1" ht="12.75">
-      <c r="A517" s="14"/>
+      <c r="A517" s="13"/>
     </row>
     <row r="518" spans="1:1" ht="12.75">
-      <c r="A518" s="14"/>
+      <c r="A518" s="13"/>
     </row>
     <row r="519" spans="1:1" ht="12.75">
-      <c r="A519" s="14"/>
+      <c r="A519" s="13"/>
     </row>
     <row r="520" spans="1:1" ht="12.75">
-      <c r="A520" s="14"/>
+      <c r="A520" s="13"/>
     </row>
     <row r="521" spans="1:1" ht="12.75">
-      <c r="A521" s="14"/>
+      <c r="A521" s="13"/>
     </row>
     <row r="522" spans="1:1" ht="12.75">
-      <c r="A522" s="14"/>
+      <c r="A522" s="13"/>
     </row>
     <row r="523" spans="1:1" ht="12.75">
-      <c r="A523" s="14"/>
+      <c r="A523" s="13"/>
     </row>
     <row r="524" spans="1:1" ht="12.75">
-      <c r="A524" s="14"/>
+      <c r="A524" s="13"/>
     </row>
     <row r="525" spans="1:1" ht="12.75">
-      <c r="A525" s="14"/>
+      <c r="A525" s="13"/>
     </row>
     <row r="526" spans="1:1" ht="12.75">
-      <c r="A526" s="14"/>
+      <c r="A526" s="13"/>
     </row>
     <row r="527" spans="1:1" ht="12.75">
-      <c r="A527" s="14"/>
+      <c r="A527" s="13"/>
     </row>
     <row r="528" spans="1:1" ht="12.75">
-      <c r="A528" s="14"/>
+      <c r="A528" s="13"/>
     </row>
     <row r="529" spans="1:1" ht="12.75">
-      <c r="A529" s="14"/>
+      <c r="A529" s="13"/>
     </row>
     <row r="530" spans="1:1" ht="12.75">
-      <c r="A530" s="14"/>
+      <c r="A530" s="13"/>
     </row>
     <row r="531" spans="1:1" ht="12.75">
-      <c r="A531" s="14"/>
+      <c r="A531" s="13"/>
     </row>
     <row r="532" spans="1:1" ht="12.75">
-      <c r="A532" s="14"/>
+      <c r="A532" s="13"/>
     </row>
     <row r="533" spans="1:1" ht="12.75">
-      <c r="A533" s="14"/>
+      <c r="A533" s="13"/>
     </row>
     <row r="534" spans="1:1" ht="12.75">
-      <c r="A534" s="14"/>
+      <c r="A534" s="13"/>
     </row>
     <row r="535" spans="1:1" ht="12.75">
-      <c r="A535" s="14"/>
+      <c r="A535" s="13"/>
     </row>
     <row r="536" spans="1:1" ht="12.75">
-      <c r="A536" s="14"/>
+      <c r="A536" s="13"/>
     </row>
     <row r="537" spans="1:1" ht="12.75">
-      <c r="A537" s="14"/>
+      <c r="A537" s="13"/>
     </row>
     <row r="538" spans="1:1" ht="12.75">
-      <c r="A538" s="14"/>
+      <c r="A538" s="13"/>
     </row>
     <row r="539" spans="1:1" ht="12.75">
-      <c r="A539" s="14"/>
+      <c r="A539" s="13"/>
     </row>
     <row r="540" spans="1:1" ht="12.75">
-      <c r="A540" s="14"/>
+      <c r="A540" s="13"/>
     </row>
     <row r="541" spans="1:1" ht="12.75">
-      <c r="A541" s="14"/>
+      <c r="A541" s="13"/>
     </row>
     <row r="542" spans="1:1" ht="12.75">
-      <c r="A542" s="14"/>
+      <c r="A542" s="13"/>
     </row>
     <row r="543" spans="1:1" ht="12.75">
-      <c r="A543" s="14"/>
+      <c r="A543" s="13"/>
     </row>
     <row r="544" spans="1:1" ht="12.75">
-      <c r="A544" s="14"/>
+      <c r="A544" s="13"/>
     </row>
     <row r="545" spans="1:1" ht="12.75">
-      <c r="A545" s="14"/>
+      <c r="A545" s="13"/>
     </row>
     <row r="546" spans="1:1" ht="12.75">
-      <c r="A546" s="14"/>
+      <c r="A546" s="13"/>
     </row>
     <row r="547" spans="1:1" ht="12.75">
-      <c r="A547" s="14"/>
+      <c r="A547" s="13"/>
     </row>
     <row r="548" spans="1:1" ht="12.75">
-      <c r="A548" s="14"/>
+      <c r="A548" s="13"/>
     </row>
     <row r="549" spans="1:1" ht="12.75">
-      <c r="A549" s="14"/>
+      <c r="A549" s="13"/>
     </row>
     <row r="550" spans="1:1" ht="12.75">
-      <c r="A550" s="14"/>
+      <c r="A550" s="13"/>
     </row>
     <row r="551" spans="1:1" ht="12.75">
-      <c r="A551" s="14"/>
+      <c r="A551" s="13"/>
     </row>
     <row r="552" spans="1:1" ht="12.75">
-      <c r="A552" s="14"/>
+      <c r="A552" s="13"/>
     </row>
     <row r="553" spans="1:1" ht="12.75">
-      <c r="A553" s="14"/>
+      <c r="A553" s="13"/>
     </row>
     <row r="554" spans="1:1" ht="12.75">
-      <c r="A554" s="14"/>
+      <c r="A554" s="13"/>
     </row>
     <row r="555" spans="1:1" ht="12.75">
-      <c r="A555" s="14"/>
+      <c r="A555" s="13"/>
     </row>
     <row r="556" spans="1:1" ht="12.75">
-      <c r="A556" s="14"/>
+      <c r="A556" s="13"/>
     </row>
     <row r="557" spans="1:1" ht="12.75">
-      <c r="A557" s="14"/>
+      <c r="A557" s="13"/>
     </row>
     <row r="558" spans="1:1" ht="12.75">
-      <c r="A558" s="14"/>
+      <c r="A558" s="13"/>
     </row>
     <row r="559" spans="1:1" ht="12.75">
-      <c r="A559" s="14"/>
+      <c r="A559" s="13"/>
     </row>
     <row r="560" spans="1:1" ht="12.75">
-      <c r="A560" s="14"/>
+      <c r="A560" s="13"/>
     </row>
     <row r="561" spans="1:1" ht="12.75">
-      <c r="A561" s="14"/>
+      <c r="A561" s="13"/>
     </row>
     <row r="562" spans="1:1" ht="12.75">
-      <c r="A562" s="14"/>
+      <c r="A562" s="13"/>
     </row>
     <row r="563" spans="1:1" ht="12.75">
-      <c r="A563" s="14"/>
+      <c r="A563" s="13"/>
     </row>
     <row r="564" spans="1:1" ht="12.75">
-      <c r="A564" s="14"/>
+      <c r="A564" s="13"/>
     </row>
     <row r="565" spans="1:1" ht="12.75">
-      <c r="A565" s="14"/>
+      <c r="A565" s="13"/>
     </row>
     <row r="566" spans="1:1" ht="12.75">
-      <c r="A566" s="14"/>
+      <c r="A566" s="13"/>
     </row>
     <row r="567" spans="1:1" ht="12.75">
-      <c r="A567" s="14"/>
+      <c r="A567" s="13"/>
     </row>
     <row r="568" spans="1:1" ht="12.75">
-      <c r="A568" s="14"/>
+      <c r="A568" s="13"/>
     </row>
     <row r="569" spans="1:1" ht="12.75">
-      <c r="A569" s="14"/>
+      <c r="A569" s="13"/>
     </row>
     <row r="570" spans="1:1" ht="12.75">
-      <c r="A570" s="14"/>
+      <c r="A570" s="13"/>
     </row>
     <row r="571" spans="1:1" ht="12.75">
-      <c r="A571" s="14"/>
+      <c r="A571" s="13"/>
     </row>
     <row r="572" spans="1:1" ht="12.75">
-      <c r="A572" s="14"/>
+      <c r="A572" s="13"/>
     </row>
     <row r="573" spans="1:1" ht="12.75">
-      <c r="A573" s="14"/>
+      <c r="A573" s="13"/>
     </row>
     <row r="574" spans="1:1" ht="12.75">
-      <c r="A574" s="14"/>
+      <c r="A574" s="13"/>
     </row>
     <row r="575" spans="1:1" ht="12.75">
-      <c r="A575" s="14"/>
+      <c r="A575" s="13"/>
     </row>
     <row r="576" spans="1:1" ht="12.75">
-      <c r="A576" s="14"/>
+      <c r="A576" s="13"/>
     </row>
     <row r="577" spans="1:1" ht="12.75">
-      <c r="A577" s="14"/>
+      <c r="A577" s="13"/>
     </row>
     <row r="578" spans="1:1" ht="12.75">
-      <c r="A578" s="14"/>
+      <c r="A578" s="13"/>
     </row>
     <row r="579" spans="1:1" ht="12.75">
-      <c r="A579" s="14"/>
+      <c r="A579" s="13"/>
     </row>
     <row r="580" spans="1:1" ht="12.75">
-      <c r="A580" s="14"/>
+      <c r="A580" s="13"/>
     </row>
     <row r="581" spans="1:1" ht="12.75">
-      <c r="A581" s="14"/>
+      <c r="A581" s="13"/>
     </row>
     <row r="582" spans="1:1" ht="12.75">
-      <c r="A582" s="14"/>
+      <c r="A582" s="13"/>
     </row>
     <row r="583" spans="1:1" ht="12.75">
-      <c r="A583" s="14"/>
+      <c r="A583" s="13"/>
     </row>
     <row r="584" spans="1:1" ht="12.75">
-      <c r="A584" s="14"/>
+      <c r="A584" s="13"/>
     </row>
     <row r="585" spans="1:1" ht="12.75">
-      <c r="A585" s="14"/>
+      <c r="A585" s="13"/>
     </row>
     <row r="586" spans="1:1" ht="12.75">
-      <c r="A586" s="14"/>
+      <c r="A586" s="13"/>
     </row>
     <row r="587" spans="1:1" ht="12.75">
-      <c r="A587" s="14"/>
+      <c r="A587" s="13"/>
     </row>
     <row r="588" spans="1:1" ht="12.75">
-      <c r="A588" s="14"/>
+      <c r="A588" s="13"/>
     </row>
     <row r="589" spans="1:1" ht="12.75">
-      <c r="A589" s="14"/>
+      <c r="A589" s="13"/>
     </row>
     <row r="590" spans="1:1" ht="12.75">
-      <c r="A590" s="14"/>
+      <c r="A590" s="13"/>
     </row>
     <row r="591" spans="1:1" ht="12.75">
-      <c r="A591" s="14"/>
+      <c r="A591" s="13"/>
     </row>
     <row r="592" spans="1:1" ht="12.75">
-      <c r="A592" s="14"/>
+      <c r="A592" s="13"/>
     </row>
     <row r="593" spans="1:1" ht="12.75">
-      <c r="A593" s="14"/>
+      <c r="A593" s="13"/>
     </row>
     <row r="594" spans="1:1" ht="12.75">
-      <c r="A594" s="14"/>
+      <c r="A594" s="13"/>
     </row>
     <row r="595" spans="1:1" ht="12.75">
-      <c r="A595" s="14"/>
+      <c r="A595" s="13"/>
     </row>
     <row r="596" spans="1:1" ht="12.75">
-      <c r="A596" s="14"/>
+      <c r="A596" s="13"/>
     </row>
     <row r="597" spans="1:1" ht="12.75">
-      <c r="A597" s="14"/>
+      <c r="A597" s="13"/>
     </row>
     <row r="598" spans="1:1" ht="12.75">
-      <c r="A598" s="14"/>
+      <c r="A598" s="13"/>
     </row>
     <row r="599" spans="1:1" ht="12.75">
-      <c r="A599" s="14"/>
+      <c r="A599" s="13"/>
     </row>
     <row r="600" spans="1:1" ht="12.75">
-      <c r="A600" s="14"/>
+      <c r="A600" s="13"/>
     </row>
     <row r="601" spans="1:1" ht="12.75">
-      <c r="A601" s="14"/>
+      <c r="A601" s="13"/>
     </row>
     <row r="602" spans="1:1" ht="12.75">
-      <c r="A602" s="14"/>
+      <c r="A602" s="13"/>
     </row>
     <row r="603" spans="1:1" ht="12.75">
-      <c r="A603" s="14"/>
+      <c r="A603" s="13"/>
     </row>
     <row r="604" spans="1:1" ht="12.75">
-      <c r="A604" s="14"/>
+      <c r="A604" s="13"/>
     </row>
     <row r="605" spans="1:1" ht="12.75">
-      <c r="A605" s="14"/>
+      <c r="A605" s="13"/>
     </row>
     <row r="606" spans="1:1" ht="12.75">
-      <c r="A606" s="14"/>
+      <c r="A606" s="13"/>
     </row>
     <row r="607" spans="1:1" ht="12.75">
-      <c r="A607" s="14"/>
+      <c r="A607" s="13"/>
     </row>
     <row r="608" spans="1:1" ht="12.75">
-      <c r="A608" s="14"/>
+      <c r="A608" s="13"/>
     </row>
     <row r="609" spans="1:1" ht="12.75">
-      <c r="A609" s="14"/>
+      <c r="A609" s="13"/>
     </row>
     <row r="610" spans="1:1" ht="12.75">
-      <c r="A610" s="14"/>
+      <c r="A610" s="13"/>
     </row>
     <row r="611" spans="1:1" ht="12.75">
-      <c r="A611" s="14"/>
+      <c r="A611" s="13"/>
     </row>
     <row r="612" spans="1:1" ht="12.75">
-      <c r="A612" s="14"/>
+      <c r="A612" s="13"/>
     </row>
     <row r="613" spans="1:1" ht="12.75">
-      <c r="A613" s="14"/>
+      <c r="A613" s="13"/>
     </row>
     <row r="614" spans="1:1" ht="12.75">
-      <c r="A614" s="14"/>
+      <c r="A614" s="13"/>
     </row>
     <row r="615" spans="1:1" ht="12.75">
-      <c r="A615" s="14"/>
+      <c r="A615" s="13"/>
     </row>
     <row r="616" spans="1:1" ht="12.75">
-      <c r="A616" s="14"/>
+      <c r="A616" s="13"/>
     </row>
     <row r="617" spans="1:1" ht="12.75">
-      <c r="A617" s="14"/>
+      <c r="A617" s="13"/>
     </row>
     <row r="618" spans="1:1" ht="12.75">
-      <c r="A618" s="14"/>
+      <c r="A618" s="13"/>
     </row>
     <row r="619" spans="1:1" ht="12.75">
-      <c r="A619" s="14"/>
+      <c r="A619" s="13"/>
     </row>
     <row r="620" spans="1:1" ht="12.75">
-      <c r="A620" s="14"/>
+      <c r="A620" s="13"/>
     </row>
     <row r="621" spans="1:1" ht="12.75">
-      <c r="A621" s="14"/>
+      <c r="A621" s="13"/>
     </row>
     <row r="622" spans="1:1" ht="12.75">
-      <c r="A622" s="14"/>
+      <c r="A622" s="13"/>
     </row>
     <row r="623" spans="1:1" ht="12.75">
-      <c r="A623" s="14"/>
+      <c r="A623" s="13"/>
     </row>
     <row r="624" spans="1:1" ht="12.75">
-      <c r="A624" s="14"/>
+      <c r="A624" s="13"/>
     </row>
     <row r="625" spans="1:1" ht="12.75">
-      <c r="A625" s="14"/>
+      <c r="A625" s="13"/>
     </row>
     <row r="626" spans="1:1" ht="12.75">
-      <c r="A626" s="14"/>
+      <c r="A626" s="13"/>
     </row>
     <row r="627" spans="1:1" ht="12.75">
-      <c r="A627" s="14"/>
+      <c r="A627" s="13"/>
     </row>
     <row r="628" spans="1:1" ht="12.75">
-      <c r="A628" s="14"/>
+      <c r="A628" s="13"/>
     </row>
     <row r="629" spans="1:1" ht="12.75">
-      <c r="A629" s="14"/>
+      <c r="A629" s="13"/>
     </row>
     <row r="630" spans="1:1" ht="12.75">
-      <c r="A630" s="14"/>
+      <c r="A630" s="13"/>
     </row>
     <row r="631" spans="1:1" ht="12.75">
-      <c r="A631" s="14"/>
+      <c r="A631" s="13"/>
     </row>
     <row r="632" spans="1:1" ht="12.75">
-      <c r="A632" s="14"/>
+      <c r="A632" s="13"/>
     </row>
     <row r="633" spans="1:1" ht="12.75">
-      <c r="A633" s="14"/>
+      <c r="A633" s="13"/>
     </row>
     <row r="634" spans="1:1" ht="12.75">
-      <c r="A634" s="14"/>
+      <c r="A634" s="13"/>
     </row>
     <row r="635" spans="1:1" ht="12.75">
-      <c r="A635" s="14"/>
+      <c r="A635" s="13"/>
     </row>
     <row r="636" spans="1:1" ht="12.75">
-      <c r="A636" s="14"/>
+      <c r="A636" s="13"/>
     </row>
     <row r="637" spans="1:1" ht="12.75">
-      <c r="A637" s="14"/>
+      <c r="A637" s="13"/>
     </row>
     <row r="638" spans="1:1" ht="12.75">
-      <c r="A638" s="14"/>
+      <c r="A638" s="13"/>
     </row>
     <row r="639" spans="1:1" ht="12.75">
-      <c r="A639" s="14"/>
+      <c r="A639" s="13"/>
     </row>
     <row r="640" spans="1:1" ht="12.75">
-      <c r="A640" s="14"/>
+      <c r="A640" s="13"/>
     </row>
     <row r="641" spans="1:1" ht="12.75">
-      <c r="A641" s="14"/>
+      <c r="A641" s="13"/>
     </row>
     <row r="642" spans="1:1" ht="12.75">
-      <c r="A642" s="14"/>
+      <c r="A642" s="13"/>
     </row>
     <row r="643" spans="1:1" ht="12.75">
-      <c r="A643" s="14"/>
+      <c r="A643" s="13"/>
     </row>
     <row r="644" spans="1:1" ht="12.75">
-      <c r="A644" s="14"/>
+      <c r="A644" s="13"/>
     </row>
     <row r="645" spans="1:1" ht="12.75">
-      <c r="A645" s="14"/>
+      <c r="A645" s="13"/>
     </row>
     <row r="646" spans="1:1" ht="12.75">
-      <c r="A646" s="14"/>
+      <c r="A646" s="13"/>
     </row>
     <row r="647" spans="1:1" ht="12.75">
-      <c r="A647" s="14"/>
+      <c r="A647" s="13"/>
     </row>
     <row r="648" spans="1:1" ht="12.75">
-      <c r="A648" s="14"/>
+      <c r="A648" s="13"/>
     </row>
     <row r="649" spans="1:1" ht="12.75">
-      <c r="A649" s="14"/>
+      <c r="A649" s="13"/>
     </row>
     <row r="650" spans="1:1" ht="12.75">
-      <c r="A650" s="14"/>
+      <c r="A650" s="13"/>
     </row>
     <row r="651" spans="1:1" ht="12.75">
-      <c r="A651" s="14"/>
+      <c r="A651" s="13"/>
     </row>
     <row r="652" spans="1:1" ht="12.75">
-      <c r="A652" s="14"/>
+      <c r="A652" s="13"/>
     </row>
     <row r="653" spans="1:1" ht="12.75">
-      <c r="A653" s="14"/>
+      <c r="A653" s="13"/>
     </row>
     <row r="654" spans="1:1" ht="12.75">
-      <c r="A654" s="14"/>
+      <c r="A654" s="13"/>
     </row>
     <row r="655" spans="1:1" ht="12.75">
-      <c r="A655" s="14"/>
+      <c r="A655" s="13"/>
     </row>
     <row r="656" spans="1:1" ht="12.75">
-      <c r="A656" s="14"/>
+      <c r="A656" s="13"/>
     </row>
     <row r="657" spans="1:1" ht="12.75">
-      <c r="A657" s="14"/>
+      <c r="A657" s="13"/>
     </row>
     <row r="658" spans="1:1" ht="12.75">
-      <c r="A658" s="14"/>
+      <c r="A658" s="13"/>
     </row>
     <row r="659" spans="1:1" ht="12.75">
-      <c r="A659" s="14"/>
+      <c r="A659" s="13"/>
     </row>
     <row r="660" spans="1:1" ht="12.75">
-      <c r="A660" s="14"/>
+      <c r="A660" s="13"/>
     </row>
     <row r="661" spans="1:1" ht="12.75">
-      <c r="A661" s="14"/>
+      <c r="A661" s="13"/>
     </row>
     <row r="662" spans="1:1" ht="12.75">
-      <c r="A662" s="14"/>
+      <c r="A662" s="13"/>
     </row>
     <row r="663" spans="1:1" ht="12.75">
-      <c r="A663" s="14"/>
+      <c r="A663" s="13"/>
     </row>
     <row r="664" spans="1:1" ht="12.75">
-      <c r="A664" s="14"/>
+      <c r="A664" s="13"/>
     </row>
     <row r="665" spans="1:1" ht="12.75">
-      <c r="A665" s="14"/>
+      <c r="A665" s="13"/>
     </row>
     <row r="666" spans="1:1" ht="12.75">
-      <c r="A666" s="14"/>
+      <c r="A666" s="13"/>
     </row>
     <row r="667" spans="1:1" ht="12.75">
-      <c r="A667" s="14"/>
+      <c r="A667" s="13"/>
     </row>
     <row r="668" spans="1:1" ht="12.75">
-      <c r="A668" s="14"/>
+      <c r="A668" s="13"/>
     </row>
     <row r="669" spans="1:1" ht="12.75">
-      <c r="A669" s="14"/>
+      <c r="A669" s="13"/>
     </row>
     <row r="670" spans="1:1" ht="12.75">
-      <c r="A670" s="14"/>
+      <c r="A670" s="13"/>
     </row>
     <row r="671" spans="1:1" ht="12.75">
-      <c r="A671" s="14"/>
+      <c r="A671" s="13"/>
     </row>
     <row r="672" spans="1:1" ht="12.75">
-      <c r="A672" s="14"/>
+      <c r="A672" s="13"/>
     </row>
     <row r="673" spans="1:1" ht="12.75">
-      <c r="A673" s="14"/>
+      <c r="A673" s="13"/>
     </row>
     <row r="674" spans="1:1" ht="12.75">
-      <c r="A674" s="14"/>
+      <c r="A674" s="13"/>
     </row>
     <row r="675" spans="1:1" ht="12.75">
-      <c r="A675" s="14"/>
+      <c r="A675" s="13"/>
     </row>
     <row r="676" spans="1:1" ht="12.75">
-      <c r="A676" s="14"/>
+      <c r="A676" s="13"/>
     </row>
     <row r="677" spans="1:1" ht="12.75">
-      <c r="A677" s="14"/>
+      <c r="A677" s="13"/>
     </row>
     <row r="678" spans="1:1" ht="12.75">
-      <c r="A678" s="14"/>
+      <c r="A678" s="13"/>
     </row>
     <row r="679" spans="1:1" ht="12.75">
-      <c r="A679" s="14"/>
+      <c r="A679" s="13"/>
     </row>
     <row r="680" spans="1:1" ht="12.75">
-      <c r="A680" s="14"/>
+      <c r="A680" s="13"/>
     </row>
     <row r="681" spans="1:1" ht="12.75">
-      <c r="A681" s="14"/>
+      <c r="A681" s="13"/>
     </row>
     <row r="682" spans="1:1" ht="12.75">
-      <c r="A682" s="14"/>
+      <c r="A682" s="13"/>
     </row>
     <row r="683" spans="1:1" ht="12.75">
-      <c r="A683" s="14"/>
+      <c r="A683" s="13"/>
     </row>
     <row r="684" spans="1:1" ht="12.75">
-      <c r="A684" s="14"/>
+      <c r="A684" s="13"/>
     </row>
     <row r="685" spans="1:1" ht="12.75">
-      <c r="A685" s="14"/>
+      <c r="A685" s="13"/>
     </row>
     <row r="686" spans="1:1" ht="12.75">
-      <c r="A686" s="14"/>
+      <c r="A686" s="13"/>
     </row>
     <row r="687" spans="1:1" ht="12.75">
-      <c r="A687" s="14"/>
+      <c r="A687" s="13"/>
     </row>
     <row r="688" spans="1:1" ht="12.75">
-      <c r="A688" s="14"/>
+      <c r="A688" s="13"/>
     </row>
     <row r="689" spans="1:1" ht="12.75">
-      <c r="A689" s="14"/>
+      <c r="A689" s="13"/>
     </row>
     <row r="690" spans="1:1" ht="12.75">
-      <c r="A690" s="14"/>
+      <c r="A690" s="13"/>
     </row>
     <row r="691" spans="1:1" ht="12.75">
-      <c r="A691" s="14"/>
+      <c r="A691" s="13"/>
     </row>
     <row r="692" spans="1:1" ht="12.75">
-      <c r="A692" s="14"/>
+      <c r="A692" s="13"/>
     </row>
     <row r="693" spans="1:1" ht="12.75">
-      <c r="A693" s="14"/>
+      <c r="A693" s="13"/>
     </row>
     <row r="694" spans="1:1" ht="12.75">
-      <c r="A694" s="14"/>
+      <c r="A694" s="13"/>
     </row>
     <row r="695" spans="1:1" ht="12.75">
-      <c r="A695" s="14"/>
+      <c r="A695" s="13"/>
     </row>
     <row r="696" spans="1:1" ht="12.75">
-      <c r="A696" s="14"/>
+      <c r="A696" s="13"/>
     </row>
     <row r="697" spans="1:1" ht="12.75">
-      <c r="A697" s="14"/>
+      <c r="A697" s="13"/>
     </row>
     <row r="698" spans="1:1" ht="12.75">
-      <c r="A698" s="14"/>
+      <c r="A698" s="13"/>
     </row>
     <row r="699" spans="1:1" ht="12.75">
-      <c r="A699" s="14"/>
+      <c r="A699" s="13"/>
     </row>
     <row r="700" spans="1:1" ht="12.75">
-      <c r="A700" s="14"/>
+      <c r="A700" s="13"/>
     </row>
     <row r="701" spans="1:1" ht="12.75">
-      <c r="A701" s="14"/>
+      <c r="A701" s="13"/>
     </row>
     <row r="702" spans="1:1" ht="12.75">
-      <c r="A702" s="14"/>
+      <c r="A702" s="13"/>
     </row>
     <row r="703" spans="1:1" ht="12.75">
-      <c r="A703" s="14"/>
+      <c r="A703" s="13"/>
     </row>
     <row r="704" spans="1:1" ht="12.75">
-      <c r="A704" s="14"/>
+      <c r="A704" s="13"/>
     </row>
     <row r="705" spans="1:1" ht="12.75">
-      <c r="A705" s="14"/>
+      <c r="A705" s="13"/>
     </row>
     <row r="706" spans="1:1" ht="12.75">
-      <c r="A706" s="14"/>
+      <c r="A706" s="13"/>
     </row>
     <row r="707" spans="1:1" ht="12.75">
-      <c r="A707" s="14"/>
+      <c r="A707" s="13"/>
     </row>
     <row r="708" spans="1:1" ht="12.75">
-      <c r="A708" s="14"/>
+      <c r="A708" s="13"/>
     </row>
     <row r="709" spans="1:1" ht="12.75">
-      <c r="A709" s="14"/>
+      <c r="A709" s="13"/>
     </row>
     <row r="710" spans="1:1" ht="12.75">
-      <c r="A710" s="14"/>
+      <c r="A710" s="13"/>
     </row>
     <row r="711" spans="1:1" ht="12.75">
-      <c r="A711" s="14"/>
+      <c r="A711" s="13"/>
     </row>
     <row r="712" spans="1:1" ht="12.75">
-      <c r="A712" s="14"/>
+      <c r="A712" s="13"/>
     </row>
     <row r="713" spans="1:1" ht="12.75">
-      <c r="A713" s="14"/>
+      <c r="A713" s="13"/>
     </row>
     <row r="714" spans="1:1" ht="12.75">
-      <c r="A714" s="14"/>
+      <c r="A714" s="13"/>
     </row>
     <row r="715" spans="1:1" ht="12.75">
-      <c r="A715" s="14"/>
+      <c r="A715" s="13"/>
     </row>
     <row r="716" spans="1:1" ht="12.75">
-      <c r="A716" s="14"/>
+      <c r="A716" s="13"/>
     </row>
     <row r="717" spans="1:1" ht="12.75">
-      <c r="A717" s="14"/>
+      <c r="A717" s="13"/>
     </row>
     <row r="718" spans="1:1" ht="12.75">
-      <c r="A718" s="14"/>
+      <c r="A718" s="13"/>
     </row>
     <row r="719" spans="1:1" ht="12.75">
-      <c r="A719" s="14"/>
+      <c r="A719" s="13"/>
     </row>
     <row r="720" spans="1:1" ht="12.75">
-      <c r="A720" s="14"/>
+      <c r="A720" s="13"/>
     </row>
     <row r="721" spans="1:1" ht="12.75">
-      <c r="A721" s="14"/>
+      <c r="A721" s="13"/>
     </row>
     <row r="722" spans="1:1" ht="12.75">
-      <c r="A722" s="14"/>
+      <c r="A722" s="13"/>
     </row>
     <row r="723" spans="1:1" ht="12.75">
-      <c r="A723" s="14"/>
+      <c r="A723" s="13"/>
     </row>
     <row r="724" spans="1:1" ht="12.75">
-      <c r="A724" s="14"/>
+      <c r="A724" s="13"/>
     </row>
     <row r="725" spans="1:1" ht="12.75">
-      <c r="A725" s="14"/>
+      <c r="A725" s="13"/>
     </row>
     <row r="726" spans="1:1" ht="12.75">
-      <c r="A726" s="14"/>
+      <c r="A726" s="13"/>
     </row>
     <row r="727" spans="1:1" ht="12.75">
-      <c r="A727" s="14"/>
+      <c r="A727" s="13"/>
     </row>
     <row r="728" spans="1:1" ht="12.75">
-      <c r="A728" s="14"/>
+      <c r="A728" s="13"/>
     </row>
     <row r="729" spans="1:1" ht="12.75">
-      <c r="A729" s="14"/>
+      <c r="A729" s="13"/>
     </row>
     <row r="730" spans="1:1" ht="12.75">
-      <c r="A730" s="14"/>
+      <c r="A730" s="13"/>
     </row>
     <row r="731" spans="1:1" ht="12.75">
-      <c r="A731" s="14"/>
+      <c r="A731" s="13"/>
     </row>
     <row r="732" spans="1:1" ht="12.75">
-      <c r="A732" s="14"/>
+      <c r="A732" s="13"/>
     </row>
     <row r="733" spans="1:1" ht="12.75">
-      <c r="A733" s="14"/>
+      <c r="A733" s="13"/>
     </row>
     <row r="734" spans="1:1" ht="12.75">
-      <c r="A734" s="14"/>
+      <c r="A734" s="13"/>
     </row>
     <row r="735" spans="1:1" ht="12.75">
-      <c r="A735" s="14"/>
+      <c r="A735" s="13"/>
     </row>
     <row r="736" spans="1:1" ht="12.75">
-      <c r="A736" s="14"/>
+      <c r="A736" s="13"/>
     </row>
     <row r="737" spans="1:1" ht="12.75">
-      <c r="A737" s="14"/>
+      <c r="A737" s="13"/>
     </row>
     <row r="738" spans="1:1" ht="12.75">
-      <c r="A738" s="14"/>
+      <c r="A738" s="13"/>
     </row>
     <row r="739" spans="1:1" ht="12.75">
-      <c r="A739" s="14"/>
+      <c r="A739" s="13"/>
     </row>
     <row r="740" spans="1:1" ht="12.75">
-      <c r="A740" s="14"/>
+      <c r="A740" s="13"/>
     </row>
     <row r="741" spans="1:1" ht="12.75">
-      <c r="A741" s="14"/>
+      <c r="A741" s="13"/>
     </row>
     <row r="742" spans="1:1" ht="12.75">
-      <c r="A742" s="14"/>
+      <c r="A742" s="13"/>
     </row>
     <row r="743" spans="1:1" ht="12.75">
-      <c r="A743" s="14"/>
+      <c r="A743" s="13"/>
     </row>
     <row r="744" spans="1:1" ht="12.75">
-      <c r="A744" s="14"/>
+      <c r="A744" s="13"/>
     </row>
     <row r="745" spans="1:1" ht="12.75">
-      <c r="A745" s="14"/>
+      <c r="A745" s="13"/>
     </row>
     <row r="746" spans="1:1" ht="12.75">
-      <c r="A746" s="14"/>
+      <c r="A746" s="13"/>
     </row>
     <row r="747" spans="1:1" ht="12.75">
-      <c r="A747" s="14"/>
+      <c r="A747" s="13"/>
     </row>
     <row r="748" spans="1:1" ht="12.75">
-      <c r="A748" s="14"/>
+      <c r="A748" s="13"/>
     </row>
     <row r="749" spans="1:1" ht="12.75">
-      <c r="A749" s="14"/>
+      <c r="A749" s="13"/>
     </row>
     <row r="750" spans="1:1" ht="12.75">
-      <c r="A750" s="14"/>
+      <c r="A750" s="13"/>
     </row>
     <row r="751" spans="1:1" ht="12.75">
-      <c r="A751" s="14"/>
+      <c r="A751" s="13"/>
     </row>
     <row r="752" spans="1:1" ht="12.75">
-      <c r="A752" s="14"/>
+      <c r="A752" s="13"/>
     </row>
     <row r="753" spans="1:1" ht="12.75">
-      <c r="A753" s="14"/>
+      <c r="A753" s="13"/>
     </row>
     <row r="754" spans="1:1" ht="12.75">
-      <c r="A754" s="14"/>
+      <c r="A754" s="13"/>
     </row>
     <row r="755" spans="1:1" ht="12.75">
-      <c r="A755" s="14"/>
+      <c r="A755" s="13"/>
     </row>
     <row r="756" spans="1:1" ht="12.75">
-      <c r="A756" s="14"/>
+      <c r="A756" s="13"/>
     </row>
     <row r="757" spans="1:1" ht="12.75">
-      <c r="A757" s="14"/>
+      <c r="A757" s="13"/>
     </row>
     <row r="758" spans="1:1" ht="12.75">
-      <c r="A758" s="14"/>
+      <c r="A758" s="13"/>
     </row>
     <row r="759" spans="1:1" ht="12.75">
-      <c r="A759" s="14"/>
+      <c r="A759" s="13"/>
     </row>
     <row r="760" spans="1:1" ht="12.75">
-      <c r="A760" s="14"/>
+      <c r="A760" s="13"/>
     </row>
     <row r="761" spans="1:1" ht="12.75">
-      <c r="A761" s="14"/>
+      <c r="A761" s="13"/>
     </row>
     <row r="762" spans="1:1" ht="12.75">
-      <c r="A762" s="14"/>
+      <c r="A762" s="13"/>
     </row>
     <row r="763" spans="1:1" ht="12.75">
-      <c r="A763" s="14"/>
+      <c r="A763" s="13"/>
     </row>
     <row r="764" spans="1:1" ht="12.75">
-      <c r="A764" s="14"/>
+      <c r="A764" s="13"/>
     </row>
     <row r="765" spans="1:1" ht="12.75">
-      <c r="A765" s="14"/>
+      <c r="A765" s="13"/>
     </row>
     <row r="766" spans="1:1" ht="12.75">
-      <c r="A766" s="14"/>
+      <c r="A766" s="13"/>
     </row>
     <row r="767" spans="1:1" ht="12.75">
-      <c r="A767" s="14"/>
+      <c r="A767" s="13"/>
     </row>
     <row r="768" spans="1:1" ht="12.75">
-      <c r="A768" s="14"/>
+      <c r="A768" s="13"/>
     </row>
     <row r="769" spans="1:1" ht="12.75">
-      <c r="A769" s="14"/>
+      <c r="A769" s="13"/>
     </row>
     <row r="770" spans="1:1" ht="12.75">
-      <c r="A770" s="14"/>
+      <c r="A770" s="13"/>
     </row>
     <row r="771" spans="1:1" ht="12.75">
-      <c r="A771" s="14"/>
+      <c r="A771" s="13"/>
     </row>
     <row r="772" spans="1:1" ht="12.75">
-      <c r="A772" s="14"/>
+      <c r="A772" s="13"/>
     </row>
     <row r="773" spans="1:1" ht="12.75">
-      <c r="A773" s="14"/>
+      <c r="A773" s="13"/>
     </row>
     <row r="774" spans="1:1" ht="12.75">
-      <c r="A774" s="14"/>
+      <c r="A774" s="13"/>
     </row>
     <row r="775" spans="1:1" ht="12.75">
-      <c r="A775" s="14"/>
+      <c r="A775" s="13"/>
     </row>
     <row r="776" spans="1:1" ht="12.75">
-      <c r="A776" s="14"/>
+      <c r="A776" s="13"/>
     </row>
     <row r="777" spans="1:1" ht="12.75">
-      <c r="A777" s="14"/>
+      <c r="A777" s="13"/>
     </row>
     <row r="778" spans="1:1" ht="12.75">
-      <c r="A778" s="14"/>
+      <c r="A778" s="13"/>
     </row>
     <row r="779" spans="1:1" ht="12.75">
-      <c r="A779" s="14"/>
+      <c r="A779" s="13"/>
     </row>
     <row r="780" spans="1:1" ht="12.75">
-      <c r="A780" s="14"/>
+      <c r="A780" s="13"/>
     </row>
     <row r="781" spans="1:1" ht="12.75">
-      <c r="A781" s="14"/>
+      <c r="A781" s="13"/>
     </row>
     <row r="782" spans="1:1" ht="12.75">
-      <c r="A782" s="14"/>
+      <c r="A782" s="13"/>
     </row>
     <row r="783" spans="1:1" ht="12.75">
-      <c r="A783" s="14"/>
+      <c r="A783" s="13"/>
     </row>
     <row r="784" spans="1:1" ht="12.75">
-      <c r="A784" s="14"/>
+      <c r="A784" s="13"/>
     </row>
     <row r="785" spans="1:1" ht="12.75">
-      <c r="A785" s="14"/>
+      <c r="A785" s="13"/>
     </row>
     <row r="786" spans="1:1" ht="12.75">
-      <c r="A786" s="14"/>
+      <c r="A786" s="13"/>
     </row>
     <row r="787" spans="1:1" ht="12.75">
-      <c r="A787" s="14"/>
+      <c r="A787" s="13"/>
     </row>
     <row r="788" spans="1:1" ht="12.75">
-      <c r="A788" s="14"/>
+      <c r="A788" s="13"/>
     </row>
     <row r="789" spans="1:1" ht="12.75">
-      <c r="A789" s="14"/>
+      <c r="A789" s="13"/>
     </row>
     <row r="790" spans="1:1" ht="12.75">
-      <c r="A790" s="14"/>
+      <c r="A790" s="13"/>
     </row>
     <row r="791" spans="1:1" ht="12.75">
-      <c r="A791" s="14"/>
+      <c r="A791" s="13"/>
     </row>
     <row r="792" spans="1:1" ht="12.75">
-      <c r="A792" s="14"/>
+      <c r="A792" s="13"/>
     </row>
     <row r="793" spans="1:1" ht="12.75">
-      <c r="A793" s="14"/>
+      <c r="A793" s="13"/>
     </row>
     <row r="794" spans="1:1" ht="12.75">
-      <c r="A794" s="14"/>
+      <c r="A794" s="13"/>
     </row>
     <row r="795" spans="1:1" ht="12.75">
-      <c r="A795" s="14"/>
+      <c r="A795" s="13"/>
     </row>
     <row r="796" spans="1:1" ht="12.75">
-      <c r="A796" s="14"/>
+      <c r="A796" s="13"/>
     </row>
     <row r="797" spans="1:1" ht="12.75">
-      <c r="A797" s="14"/>
+      <c r="A797" s="13"/>
     </row>
     <row r="798" spans="1:1" ht="12.75">
-      <c r="A798" s="14"/>
+      <c r="A798" s="13"/>
     </row>
     <row r="799" spans="1:1" ht="12.75">
-      <c r="A799" s="14"/>
+      <c r="A799" s="13"/>
     </row>
     <row r="800" spans="1:1" ht="12.75">
-      <c r="A800" s="14"/>
+      <c r="A800" s="13"/>
     </row>
     <row r="801" spans="1:1" ht="12.75">
-      <c r="A801" s="14"/>
+      <c r="A801" s="13"/>
     </row>
     <row r="802" spans="1:1" ht="12.75">
-      <c r="A802" s="14"/>
+      <c r="A802" s="13"/>
     </row>
     <row r="803" spans="1:1" ht="12.75">
-      <c r="A803" s="14"/>
+      <c r="A803" s="13"/>
     </row>
     <row r="804" spans="1:1" ht="12.75">
-      <c r="A804" s="14"/>
+      <c r="A804" s="13"/>
     </row>
     <row r="805" spans="1:1" ht="12.75">
-      <c r="A805" s="14"/>
+      <c r="A805" s="13"/>
     </row>
     <row r="806" spans="1:1" ht="12.75">
-      <c r="A806" s="14"/>
+      <c r="A806" s="13"/>
     </row>
     <row r="807" spans="1:1" ht="12.75">
-      <c r="A807" s="14"/>
+      <c r="A807" s="13"/>
     </row>
     <row r="808" spans="1:1" ht="12.75">
-      <c r="A808" s="14"/>
+      <c r="A808" s="13"/>
     </row>
     <row r="809" spans="1:1" ht="12.75">
-      <c r="A809" s="14"/>
+      <c r="A809" s="13"/>
     </row>
     <row r="810" spans="1:1" ht="12.75">
-      <c r="A810" s="14"/>
+      <c r="A810" s="13"/>
     </row>
     <row r="811" spans="1:1" ht="12.75">
-      <c r="A811" s="14"/>
+      <c r="A811" s="13"/>
     </row>
     <row r="812" spans="1:1" ht="12.75">
-      <c r="A812" s="14"/>
+      <c r="A812" s="13"/>
     </row>
     <row r="813" spans="1:1" ht="12.75">
-      <c r="A813" s="14"/>
+      <c r="A813" s="13"/>
     </row>
     <row r="814" spans="1:1" ht="12.75">
-      <c r="A814" s="14"/>
+      <c r="A814" s="13"/>
     </row>
     <row r="815" spans="1:1" ht="12.75">
-      <c r="A815" s="14"/>
+      <c r="A815" s="13"/>
     </row>
     <row r="816" spans="1:1" ht="12.75">
-      <c r="A816" s="14"/>
+      <c r="A816" s="13"/>
     </row>
     <row r="817" spans="1:1" ht="12.75">
-      <c r="A817" s="14"/>
+      <c r="A817" s="13"/>
     </row>
     <row r="818" spans="1:1" ht="12.75">
-      <c r="A818" s="14"/>
+      <c r="A818" s="13"/>
     </row>
     <row r="819" spans="1:1" ht="12.75">
-      <c r="A819" s="14"/>
+      <c r="A819" s="13"/>
     </row>
     <row r="820" spans="1:1" ht="12.75">
-      <c r="A820" s="14"/>
+      <c r="A820" s="13"/>
     </row>
     <row r="821" spans="1:1" ht="12.75">
-      <c r="A821" s="14"/>
+      <c r="A821" s="13"/>
     </row>
     <row r="822" spans="1:1" ht="12.75">
-      <c r="A822" s="14"/>
+      <c r="A822" s="13"/>
     </row>
     <row r="823" spans="1:1" ht="12.75">
-      <c r="A823" s="14"/>
+      <c r="A823" s="13"/>
     </row>
     <row r="824" spans="1:1" ht="12.75">
-      <c r="A824" s="14"/>
+      <c r="A824" s="13"/>
     </row>
     <row r="825" spans="1:1" ht="12.75">
-      <c r="A825" s="14"/>
+      <c r="A825" s="13"/>
     </row>
     <row r="826" spans="1:1" ht="12.75">
-      <c r="A826" s="14"/>
+      <c r="A826" s="13"/>
     </row>
     <row r="827" spans="1:1" ht="12.75">
-      <c r="A827" s="14"/>
+      <c r="A827" s="13"/>
     </row>
     <row r="828" spans="1:1" ht="12.75">
-      <c r="A828" s="14"/>
+      <c r="A828" s="13"/>
     </row>
     <row r="829" spans="1:1" ht="12.75">
-      <c r="A829" s="14"/>
+      <c r="A829" s="13"/>
     </row>
     <row r="830" spans="1:1" ht="12.75">
-      <c r="A830" s="14"/>
+      <c r="A830" s="13"/>
     </row>
     <row r="831" spans="1:1" ht="12.75">
-      <c r="A831" s="14"/>
+      <c r="A831" s="13"/>
     </row>
     <row r="832" spans="1:1" ht="12.75">
-      <c r="A832" s="14"/>
+      <c r="A832" s="13"/>
     </row>
     <row r="833" spans="1:1" ht="12.75">
-      <c r="A833" s="14"/>
+      <c r="A833" s="13"/>
     </row>
     <row r="834" spans="1:1" ht="12.75">
-      <c r="A834" s="14"/>
+      <c r="A834" s="13"/>
     </row>
     <row r="835" spans="1:1" ht="12.75">
-      <c r="A835" s="14"/>
+      <c r="A835" s="13"/>
     </row>
     <row r="836" spans="1:1" ht="12.75">
-      <c r="A836" s="14"/>
+      <c r="A836" s="13"/>
     </row>
     <row r="837" spans="1:1" ht="12.75">
-      <c r="A837" s="14"/>
+      <c r="A837" s="13"/>
     </row>
     <row r="838" spans="1:1" ht="12.75">
-      <c r="A838" s="14"/>
+      <c r="A838" s="13"/>
     </row>
     <row r="839" spans="1:1" ht="12.75">
-      <c r="A839" s="14"/>
+      <c r="A839" s="13"/>
     </row>
     <row r="840" spans="1:1" ht="12.75">
-      <c r="A840" s="14"/>
+      <c r="A840" s="13"/>
     </row>
     <row r="841" spans="1:1" ht="12.75">
-      <c r="A841" s="14"/>
+      <c r="A841" s="13"/>
     </row>
     <row r="842" spans="1:1" ht="12.75">
-      <c r="A842" s="14"/>
+      <c r="A842" s="13"/>
     </row>
     <row r="843" spans="1:1" ht="12.75">
-      <c r="A843" s="14"/>
+      <c r="A843" s="13"/>
     </row>
     <row r="844" spans="1:1" ht="12.75">
-      <c r="A844" s="14"/>
+      <c r="A844" s="13"/>
     </row>
     <row r="845" spans="1:1" ht="12.75">
-      <c r="A845" s="14"/>
+      <c r="A845" s="13"/>
     </row>
     <row r="846" spans="1:1" ht="12.75">
-      <c r="A846" s="14"/>
+      <c r="A846" s="13"/>
     </row>
     <row r="847" spans="1:1" ht="12.75">
-      <c r="A847" s="14"/>
+      <c r="A847" s="13"/>
     </row>
     <row r="848" spans="1:1" ht="12.75">
-      <c r="A848" s="14"/>
+      <c r="A848" s="13"/>
     </row>
     <row r="849" spans="1:1" ht="12.75">
-      <c r="A849" s="14"/>
+      <c r="A849" s="13"/>
     </row>
     <row r="850" spans="1:1" ht="12.75">
-      <c r="A850" s="14"/>
+      <c r="A850" s="13"/>
     </row>
     <row r="851" spans="1:1" ht="12.75">
-      <c r="A851" s="14"/>
+      <c r="A851" s="13"/>
     </row>
     <row r="852" spans="1:1" ht="12.75">
-      <c r="A852" s="14"/>
+      <c r="A852" s="13"/>
     </row>
     <row r="853" spans="1:1" ht="12.75">
-      <c r="A853" s="14"/>
+      <c r="A853" s="13"/>
     </row>
     <row r="854" spans="1:1" ht="12.75">
-      <c r="A854" s="14"/>
+      <c r="A854" s="13"/>
     </row>
     <row r="855" spans="1:1" ht="12.75">
-      <c r="A855" s="14"/>
+      <c r="A855" s="13"/>
     </row>
     <row r="856" spans="1:1" ht="12.75">
-      <c r="A856" s="14"/>
+      <c r="A856" s="13"/>
     </row>
     <row r="857" spans="1:1" ht="12.75">
-      <c r="A857" s="14"/>
+      <c r="A857" s="13"/>
     </row>
     <row r="858" spans="1:1" ht="12.75">
-      <c r="A858" s="14"/>
+      <c r="A858" s="13"/>
     </row>
     <row r="859" spans="1:1" ht="12.75">
-      <c r="A859" s="14"/>
+      <c r="A859" s="13"/>
     </row>
     <row r="860" spans="1:1" ht="12.75">
-      <c r="A860" s="14"/>
+      <c r="A860" s="13"/>
     </row>
     <row r="861" spans="1:1" ht="12.75">
-      <c r="A861" s="14"/>
+      <c r="A861" s="13"/>
     </row>
     <row r="862" spans="1:1" ht="12.75">
-      <c r="A862" s="14"/>
+      <c r="A862" s="13"/>
     </row>
     <row r="863" spans="1:1" ht="12.75">
-      <c r="A863" s="14"/>
+      <c r="A863" s="13"/>
     </row>
     <row r="864" spans="1:1" ht="12.75">
-      <c r="A864" s="14"/>
+      <c r="A864" s="13"/>
     </row>
     <row r="865" spans="1:1" ht="12.75">
-      <c r="A865" s="14"/>
+      <c r="A865" s="13"/>
     </row>
     <row r="866" spans="1:1" ht="12.75">
-      <c r="A866" s="14"/>
+      <c r="A866" s="13"/>
     </row>
     <row r="867" spans="1:1" ht="12.75">
-      <c r="A867" s="14"/>
+      <c r="A867" s="13"/>
     </row>
     <row r="868" spans="1:1" ht="12.75">
-      <c r="A868" s="14"/>
+      <c r="A868" s="13"/>
     </row>
     <row r="869" spans="1:1" ht="12.75">
-      <c r="A869" s="14"/>
+      <c r="A869" s="13"/>
     </row>
     <row r="870" spans="1:1" ht="12.75">
-      <c r="A870" s="14"/>
+      <c r="A870" s="13"/>
     </row>
     <row r="871" spans="1:1" ht="12.75">
-      <c r="A871" s="14"/>
+      <c r="A871" s="13"/>
     </row>
     <row r="872" spans="1:1" ht="12.75">
-      <c r="A872" s="14"/>
+      <c r="A872" s="13"/>
     </row>
     <row r="873" spans="1:1" ht="12.75">
-      <c r="A873" s="14"/>
+      <c r="A873" s="13"/>
     </row>
     <row r="874" spans="1:1" ht="12.75">
-      <c r="A874" s="14"/>
+      <c r="A874" s="13"/>
     </row>
     <row r="875" spans="1:1" ht="12.75">
-      <c r="A875" s="14"/>
+      <c r="A875" s="13"/>
     </row>
     <row r="876" spans="1:1" ht="12.75">
-      <c r="A876" s="14"/>
+      <c r="A876" s="13"/>
     </row>
     <row r="877" spans="1:1" ht="12.75">
-      <c r="A877" s="14"/>
+      <c r="A877" s="13"/>
     </row>
     <row r="878" spans="1:1" ht="12.75">
-      <c r="A878" s="14"/>
+      <c r="A878" s="13"/>
     </row>
     <row r="879" spans="1:1" ht="12.75">
-      <c r="A879" s="14"/>
+      <c r="A879" s="13"/>
     </row>
     <row r="880" spans="1:1" ht="12.75">
-      <c r="A880" s="14"/>
+      <c r="A880" s="13"/>
     </row>
     <row r="881" spans="1:1" ht="12.75">
-      <c r="A881" s="14"/>
+      <c r="A881" s="13"/>
     </row>
     <row r="882" spans="1:1" ht="12.75">
-      <c r="A882" s="14"/>
+      <c r="A882" s="13"/>
     </row>
     <row r="883" spans="1:1" ht="12.75">
-      <c r="A883" s="14"/>
+      <c r="A883" s="13"/>
     </row>
     <row r="884" spans="1:1" ht="12.75">
-      <c r="A884" s="14"/>
+      <c r="A884" s="13"/>
     </row>
     <row r="885" spans="1:1" ht="12.75">
-      <c r="A885" s="14"/>
+      <c r="A885" s="13"/>
     </row>
     <row r="886" spans="1:1" ht="12.75">
-      <c r="A886" s="14"/>
+      <c r="A886" s="13"/>
     </row>
     <row r="887" spans="1:1" ht="12.75">
-      <c r="A887" s="14"/>
+      <c r="A887" s="13"/>
     </row>
     <row r="888" spans="1:1" ht="12.75">
-      <c r="A888" s="14"/>
+      <c r="A888" s="13"/>
     </row>
     <row r="889" spans="1:1" ht="12.75">
-      <c r="A889" s="14"/>
+      <c r="A889" s="13"/>
     </row>
     <row r="890" spans="1:1" ht="12.75">
-      <c r="A890" s="14"/>
+      <c r="A890" s="13"/>
     </row>
     <row r="891" spans="1:1" ht="12.75">
-      <c r="A891" s="14"/>
+      <c r="A891" s="13"/>
     </row>
     <row r="892" spans="1:1" ht="12.75">
-      <c r="A892" s="14"/>
+      <c r="A892" s="13"/>
     </row>
     <row r="893" spans="1:1" ht="12.75">
-      <c r="A893" s="14"/>
+      <c r="A893" s="13"/>
     </row>
     <row r="894" spans="1:1" ht="12.75">
-      <c r="A894" s="14"/>
+      <c r="A894" s="13"/>
     </row>
     <row r="895" spans="1:1" ht="12.75">
-      <c r="A895" s="14"/>
+      <c r="A895" s="13"/>
     </row>
     <row r="896" spans="1:1" ht="12.75">
-      <c r="A896" s="14"/>
+      <c r="A896" s="13"/>
     </row>
     <row r="897" spans="1:1" ht="12.75">
-      <c r="A897" s="14"/>
+      <c r="A897" s="13"/>
     </row>
     <row r="898" spans="1:1" ht="12.75">
-      <c r="A898" s="14"/>
+      <c r="A898" s="13"/>
     </row>
     <row r="899" spans="1:1" ht="12.75">
-      <c r="A899" s="14"/>
+      <c r="A899" s="13"/>
     </row>
     <row r="900" spans="1:1" ht="12.75">
-      <c r="A900" s="14"/>
+      <c r="A900" s="13"/>
     </row>
     <row r="901" spans="1:1" ht="12.75">
-      <c r="A901" s="14"/>
+      <c r="A901" s="13"/>
     </row>
     <row r="902" spans="1:1" ht="12.75">
-      <c r="A902" s="14"/>
+      <c r="A902" s="13"/>
     </row>
     <row r="903" spans="1:1" ht="12.75">
-      <c r="A903" s="14"/>
+      <c r="A903" s="13"/>
     </row>
     <row r="904" spans="1:1" ht="12.75">
-      <c r="A904" s="14"/>
+      <c r="A904" s="13"/>
     </row>
     <row r="905" spans="1:1" ht="12.75">
-      <c r="A905" s="14"/>
+      <c r="A905" s="13"/>
     </row>
     <row r="906" spans="1:1" ht="12.75">
-      <c r="A906" s="14"/>
+      <c r="A906" s="13"/>
     </row>
     <row r="907" spans="1:1" ht="12.75">
-      <c r="A907" s="14"/>
+      <c r="A907" s="13"/>
     </row>
     <row r="908" spans="1:1" ht="12.75">
-      <c r="A908" s="14"/>
+      <c r="A908" s="13"/>
     </row>
     <row r="909" spans="1:1" ht="12.75">
-      <c r="A909" s="14"/>
+      <c r="A909" s="13"/>
     </row>
     <row r="910" spans="1:1" ht="12.75">
-      <c r="A910" s="14"/>
+      <c r="A910" s="13"/>
     </row>
     <row r="911" spans="1:1" ht="12.75">
-      <c r="A911" s="14"/>
+      <c r="A911" s="13"/>
     </row>
     <row r="912" spans="1:1" ht="12.75">
-      <c r="A912" s="14"/>
+      <c r="A912" s="13"/>
     </row>
     <row r="913" spans="1:1" ht="12.75">
-      <c r="A913" s="14"/>
+      <c r="A913" s="13"/>
     </row>
     <row r="914" spans="1:1" ht="12.75">
-      <c r="A914" s="14"/>
+      <c r="A914" s="13"/>
     </row>
     <row r="915" spans="1:1" ht="12.75">
-      <c r="A915" s="14"/>
+      <c r="A915" s="13"/>
     </row>
     <row r="916" spans="1:1" ht="12.75">
-      <c r="A916" s="14"/>
+      <c r="A916" s="13"/>
     </row>
     <row r="917" spans="1:1" ht="12.75">
-      <c r="A917" s="14"/>
+      <c r="A917" s="13"/>
     </row>
     <row r="918" spans="1:1" ht="12.75">
-      <c r="A918" s="14"/>
+      <c r="A918" s="13"/>
     </row>
     <row r="919" spans="1:1" ht="12.75">
-      <c r="A919" s="14"/>
+      <c r="A919" s="13"/>
     </row>
     <row r="920" spans="1:1" ht="12.75">
-      <c r="A920" s="14"/>
+      <c r="A920" s="13"/>
     </row>
     <row r="921" spans="1:1" ht="12.75">
-      <c r="A921" s="14"/>
+      <c r="A921" s="13"/>
     </row>
     <row r="922" spans="1:1" ht="12.75">
-      <c r="A922" s="14"/>
+      <c r="A922" s="13"/>
     </row>
     <row r="923" spans="1:1" ht="12.75">
-      <c r="A923" s="14"/>
+      <c r="A923" s="13"/>
     </row>
     <row r="924" spans="1:1" ht="12.75">
-      <c r="A924" s="14"/>
+      <c r="A924" s="13"/>
     </row>
     <row r="925" spans="1:1" ht="12.75">
-      <c r="A925" s="14"/>
+      <c r="A925" s="13"/>
     </row>
     <row r="926" spans="1:1" ht="12.75">
-      <c r="A926" s="14"/>
+      <c r="A926" s="13"/>
     </row>
     <row r="927" spans="1:1" ht="12.75">
-      <c r="A927" s="14"/>
+      <c r="A927" s="13"/>
     </row>
     <row r="928" spans="1:1" ht="12.75">
-      <c r="A928" s="14"/>
+      <c r="A928" s="13"/>
     </row>
     <row r="929" spans="1:1" ht="12.75">
-      <c r="A929" s="14"/>
+      <c r="A929" s="13"/>
     </row>
     <row r="930" spans="1:1" ht="12.75">
-      <c r="A930" s="14"/>
+      <c r="A930" s="13"/>
     </row>
     <row r="931" spans="1:1" ht="12.75">
-      <c r="A931" s="14"/>
+      <c r="A931" s="13"/>
     </row>
     <row r="932" spans="1:1" ht="12.75">
-      <c r="A932" s="14"/>
+      <c r="A932" s="13"/>
     </row>
     <row r="933" spans="1:1" ht="12.75">
-      <c r="A933" s="14"/>
+      <c r="A933" s="13"/>
     </row>
     <row r="934" spans="1:1" ht="12.75">
-      <c r="A934" s="14"/>
+      <c r="A934" s="13"/>
     </row>
     <row r="935" spans="1:1" ht="12.75">
-      <c r="A935" s="14"/>
+      <c r="A935" s="13"/>
     </row>
     <row r="936" spans="1:1" ht="12.75">
-      <c r="A936" s="14"/>
+      <c r="A936" s="13"/>
     </row>
     <row r="937" spans="1:1" ht="12.75">
-      <c r="A937" s="14"/>
+      <c r="A937" s="13"/>
     </row>
     <row r="938" spans="1:1" ht="12.75">
-      <c r="A938" s="14"/>
+      <c r="A938" s="13"/>
     </row>
     <row r="939" spans="1:1" ht="12.75">
-      <c r="A939" s="14"/>
+      <c r="A939" s="13"/>
     </row>
     <row r="940" spans="1:1" ht="12.75">
-      <c r="A940" s="14"/>
+      <c r="A940" s="13"/>
     </row>
     <row r="941" spans="1:1" ht="12.75">
-      <c r="A941" s="14"/>
+      <c r="A941" s="13"/>
     </row>
     <row r="942" spans="1:1" ht="12.75">
-      <c r="A942" s="14"/>
+      <c r="A942" s="13"/>
     </row>
     <row r="943" spans="1:1" ht="12.75">
-      <c r="A943" s="14"/>
+      <c r="A943" s="13"/>
     </row>
     <row r="944" spans="1:1" ht="12.75">
-      <c r="A944" s="14"/>
+      <c r="A944" s="13"/>
     </row>
     <row r="945" spans="1:1" ht="12.75">
-      <c r="A945" s="14"/>
+      <c r="A945" s="13"/>
     </row>
     <row r="946" spans="1:1" ht="12.75">
-      <c r="A946" s="14"/>
+      <c r="A946" s="13"/>
     </row>
     <row r="947" spans="1:1" ht="12.75">
-      <c r="A947" s="14"/>
+      <c r="A947" s="13"/>
     </row>
     <row r="948" spans="1:1" ht="12.75">
-      <c r="A948" s="14"/>
+      <c r="A948" s="13"/>
     </row>
     <row r="949" spans="1:1" ht="12.75">
-      <c r="A949" s="14"/>
+      <c r="A949" s="13"/>
     </row>
     <row r="950" spans="1:1" ht="12.75">
-      <c r="A950" s="14"/>
+      <c r="A950" s="13"/>
     </row>
     <row r="951" spans="1:1" ht="12.75">
-      <c r="A951" s="14"/>
+      <c r="A951" s="13"/>
     </row>
     <row r="952" spans="1:1" ht="12.75">
-      <c r="A952" s="14"/>
+      <c r="A952" s="13"/>
     </row>
     <row r="953" spans="1:1" ht="12.75">
-      <c r="A953" s="14"/>
+      <c r="A953" s="13"/>
     </row>
     <row r="954" spans="1:1" ht="12.75">
-      <c r="A954" s="14"/>
+      <c r="A954" s="13"/>
     </row>
     <row r="955" spans="1:1" ht="12.75">
-      <c r="A955" s="14"/>
+      <c r="A955" s="13"/>
     </row>
     <row r="956" spans="1:1" ht="12.75">
-      <c r="A956" s="14"/>
+      <c r="A956" s="13"/>
     </row>
     <row r="957" spans="1:1" ht="12.75">
-      <c r="A957" s="14"/>
+      <c r="A957" s="13"/>
     </row>
     <row r="958" spans="1:1" ht="12.75">
-      <c r="A958" s="14"/>
+      <c r="A958" s="13"/>
     </row>
     <row r="959" spans="1:1" ht="12.75">
-      <c r="A959" s="14"/>
+      <c r="A959" s="13"/>
     </row>
     <row r="960" spans="1:1" ht="12.75">
-      <c r="A960" s="14"/>
+      <c r="A960" s="13"/>
     </row>
     <row r="961" spans="1:1" ht="12.75">
-      <c r="A961" s="14"/>
+      <c r="A961" s="13"/>
     </row>
     <row r="962" spans="1:1" ht="12.75">
-      <c r="A962" s="14"/>
+      <c r="A962" s="13"/>
     </row>
     <row r="963" spans="1:1" ht="12.75">
-      <c r="A963" s="14"/>
+      <c r="A963" s="13"/>
     </row>
     <row r="964" spans="1:1" ht="12.75">
-      <c r="A964" s="14"/>
+      <c r="A964" s="13"/>
     </row>
     <row r="965" spans="1:1" ht="12.75">
-      <c r="A965" s="14"/>
+      <c r="A965" s="13"/>
     </row>
     <row r="966" spans="1:1" ht="12.75">
-      <c r="A966" s="14"/>
+      <c r="A966" s="13"/>
     </row>
     <row r="967" spans="1:1" ht="12.75">
-      <c r="A967" s="14"/>
+      <c r="A967" s="13"/>
     </row>
     <row r="968" spans="1:1" ht="12.75">
-      <c r="A968" s="14"/>
+      <c r="A968" s="13"/>
     </row>
     <row r="969" spans="1:1" ht="12.75">
-      <c r="A969" s="14"/>
+      <c r="A969" s="13"/>
     </row>
     <row r="970" spans="1:1" ht="12.75">
-      <c r="A970" s="14"/>
+      <c r="A970" s="13"/>
     </row>
     <row r="971" spans="1:1" ht="12.75">
-      <c r="A971" s="14"/>
+      <c r="A971" s="13"/>
     </row>
     <row r="972" spans="1:1" ht="12.75">
-      <c r="A972" s="14"/>
+      <c r="A972" s="13"/>
     </row>
     <row r="973" spans="1:1" ht="12.75">
-      <c r="A973" s="14"/>
+      <c r="A973" s="13"/>
     </row>
     <row r="974" spans="1:1" ht="12.75">
-      <c r="A974" s="14"/>
+      <c r="A974" s="13"/>
     </row>
     <row r="975" spans="1:1" ht="12.75">
-      <c r="A975" s="14"/>
+      <c r="A975" s="13"/>
     </row>
     <row r="976" spans="1:1" ht="12.75">
-      <c r="A976" s="14"/>
+      <c r="A976" s="13"/>
     </row>
     <row r="977" spans="1:1" ht="12.75">
-      <c r="A977" s="14"/>
+      <c r="A977" s="13"/>
     </row>
     <row r="978" spans="1:1" ht="12.75">
-      <c r="A978" s="14"/>
+      <c r="A978" s="13"/>
     </row>
     <row r="979" spans="1:1" ht="12.75">
-      <c r="A979" s="14"/>
+      <c r="A979" s="13"/>
     </row>
     <row r="980" spans="1:1" ht="12.75">
-      <c r="A980" s="14"/>
+      <c r="A980" s="13"/>
     </row>
     <row r="981" spans="1:1" ht="12.75">
-      <c r="A981" s="14"/>
+      <c r="A981" s="13"/>
     </row>
     <row r="982" spans="1:1" ht="12.75">
-      <c r="A982" s="14"/>
+      <c r="A982" s="13"/>
     </row>
     <row r="983" spans="1:1" ht="12.75">
-      <c r="A983" s="14"/>
+      <c r="A983" s="13"/>
     </row>
     <row r="984" spans="1:1" ht="12.75">
-      <c r="A984" s="14"/>
+      <c r="A984" s="13"/>
     </row>
     <row r="985" spans="1:1" ht="12.75">
-      <c r="A985" s="14"/>
+      <c r="A985" s="13"/>
     </row>
     <row r="986" spans="1:1" ht="12.75">
-      <c r="A986" s="14"/>
+      <c r="A986" s="13"/>
     </row>
     <row r="987" spans="1:1" ht="12.75">
-      <c r="A987" s="14"/>
+      <c r="A987" s="13"/>
     </row>
     <row r="988" spans="1:1" ht="12.75">
-      <c r="A988" s="14"/>
+      <c r="A988" s="13"/>
     </row>
     <row r="989" spans="1:1" ht="12.75">
-      <c r="A989" s="14"/>
+      <c r="A989" s="13"/>
     </row>
     <row r="990" spans="1:1" ht="12.75">
-      <c r="A990" s="14"/>
+      <c r="A990" s="13"/>
     </row>
     <row r="991" spans="1:1" ht="12.75">
-      <c r="A991" s="14"/>
+      <c r="A991" s="13"/>
     </row>
     <row r="992" spans="1:1" ht="12.75">
-      <c r="A992" s="14"/>
+      <c r="A992" s="13"/>
     </row>
     <row r="993" spans="1:1" ht="12.75">
-      <c r="A993" s="14"/>
+      <c r="A993" s="13"/>
     </row>
     <row r="994" spans="1:1" ht="12.75">
-      <c r="A994" s="14"/>
+      <c r="A994" s="13"/>
     </row>
     <row r="995" spans="1:1" ht="12.75">
-      <c r="A995" s="14"/>
+      <c r="A995" s="13"/>
     </row>
     <row r="996" spans="1:1" ht="12.75">
-      <c r="A996" s="14"/>
+      <c r="A996" s="13"/>
     </row>
     <row r="997" spans="1:1" ht="12.75">
-      <c r="A997" s="14"/>
+      <c r="A997" s="13"/>
     </row>
     <row r="998" spans="1:1" ht="12.75">
-      <c r="A998" s="14"/>
+      <c r="A998" s="13"/>
     </row>
     <row r="999" spans="1:1" ht="12.75">
-      <c r="A999" s="14"/>
+      <c r="A999" s="13"/>
     </row>
     <row r="1000" spans="1:1" ht="12.75">
-      <c r="A1000" s="14"/>
+      <c r="A1000" s="13"/>
     </row>
     <row r="1001" spans="1:1" ht="12.75">
-      <c r="A1001" s="14"/>
+      <c r="A1001" s="13"/>
     </row>
     <row r="1002" spans="1:1" ht="12.75">
-      <c r="A1002" s="14"/>
+      <c r="A1002" s="13"/>
     </row>
     <row r="1003" spans="1:1" ht="12.75">
-      <c r="A1003" s="14"/>
+      <c r="A1003" s="13"/>
     </row>
     <row r="1004" spans="1:1" ht="12.75">
-      <c r="A1004" s="14"/>
+      <c r="A1004" s="13"/>
     </row>
     <row r="1005" spans="1:1" ht="12.75">
-      <c r="A1005" s="14"/>
+      <c r="A1005" s="13"/>
     </row>
     <row r="1006" spans="1:1" ht="12.75">
-      <c r="A1006" s="14"/>
+      <c r="A1006" s="13"/>
     </row>
     <row r="1007" spans="1:1" ht="12.75">
-      <c r="A1007" s="14"/>
+      <c r="A1007" s="13"/>
     </row>
     <row r="1008" spans="1:1" ht="12.75">
-      <c r="A1008" s="14"/>
+      <c r="A1008" s="13"/>
     </row>
     <row r="1009" spans="1:1" ht="12.75">
-      <c r="A1009" s="14"/>
+      <c r="A1009" s="13"/>
     </row>
     <row r="1010" spans="1:1" ht="12.75">
-      <c r="A1010" s="14"/>
+      <c r="A1010" s="13"/>
     </row>
     <row r="1011" spans="1:1" ht="12.75">
-      <c r="A1011" s="14"/>
+      <c r="A1011" s="13"/>
     </row>
     <row r="1012" spans="1:1" ht="12.75">
-      <c r="A1012" s="14"/>
+      <c r="A1012" s="13"/>
     </row>
     <row r="1013" spans="1:1" ht="12.75">
-      <c r="A1013" s="14"/>
+      <c r="A1013" s="13"/>
     </row>
     <row r="1014" spans="1:1" ht="12.75">
-      <c r="A1014" s="14"/>
+      <c r="A1014" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="5">
